--- a/reports/Solutions.xlsx
+++ b/reports/Solutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Comp_Math\tasks and reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Comp_Math\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F48F09-A8AD-4DAB-9D09-B43C48BCA0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FBCED8-4758-409F-A6B7-A7E42E561362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{4DD3A309-C25B-4EE0-85DE-85C6E8C93D45}"/>
+    <workbookView xWindow="-17475" yWindow="2010" windowWidth="16485" windowHeight="11460" firstSheet="3" activeTab="7" xr2:uid="{4DD3A309-C25B-4EE0-85DE-85C6E8C93D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab1.шаговый" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Lab2.метод_Гаусса" sheetId="5" r:id="rId5"/>
     <sheet name="Lab2_метод_Якоби" sheetId="6" r:id="rId6"/>
     <sheet name="Lab2_метод_Зейделя" sheetId="7" r:id="rId7"/>
+    <sheet name="Lab3_метод центральных" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Шаговый метод</t>
   </si>
@@ -131,6 +132,30 @@
   <si>
     <t>Решение Гаусса-Зейделя</t>
   </si>
+  <si>
+    <t>Вычисление интеграла методом центральных прямоугольников</t>
+  </si>
+  <si>
+    <t>Нижний предел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхний предел </t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Fk(x)</t>
+  </si>
+  <si>
+    <t>Xi-1/2</t>
+  </si>
+  <si>
+    <t>|=</t>
+  </si>
 </sst>
 </file>
 
@@ -195,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -637,11 +662,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -787,6 +851,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -876,6 +946,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1543,6 +1658,82 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D82255A-2150-C7A6-8726-5D1E35E16847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6581775" y="457200"/>
+          <a:ext cx="1323975" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -1854,10 +2045,10 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -2017,50 +2208,50 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="66">
         <v>0.85</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="66">
         <v>1E-3</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
     </row>
     <row r="6" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
@@ -2223,10 +2414,10 @@
       </c>
     </row>
     <row r="3" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="64"/>
       <c r="H3" s="36"/>
       <c r="I3" s="1">
         <f>I2^3+0.2*I2^2+0.5*I2-1.2</f>
@@ -2278,22 +2469,22 @@
       <c r="D6" s="6">
         <v>1E-3</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="74"/>
     </row>
     <row r="7" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77"/>
     </row>
     <row r="8" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="31"/>
@@ -2354,10 +2545,10 @@
   <sheetData>
     <row r="14" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="62"/>
+      <c r="D15" s="64"/>
     </row>
     <row r="16" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
@@ -2384,18 +2575,18 @@
       </c>
     </row>
     <row r="19" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="81"/>
+      <c r="D19" s="83"/>
     </row>
     <row r="20" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
     </row>
     <row r="21" spans="3:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
     </row>
     <row r="22" spans="3:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="31"/>
@@ -2488,14 +2679,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="53">
@@ -2728,16 +2919,16 @@
   <sheetData>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="58" t="s">
@@ -2752,11 +2943,11 @@
       <c r="E6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
       <c r="I6" s="59" t="s">
         <v>24</v>
       </c>
@@ -3458,7 +3649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E019FA4-E983-496F-B722-121A3E017FAE}">
   <dimension ref="B4:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
@@ -3470,16 +3661,16 @@
   <sheetData>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="58" t="s">
@@ -3494,11 +3685,11 @@
       <c r="E6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
       <c r="I6" s="59" t="s">
         <v>24</v>
       </c>
@@ -4194,4 +4385,229 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBA286C-4F68-42A3-9DE7-519B23D0087E}">
+  <dimension ref="D2:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="93"/>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="94"/>
+    </row>
+    <row r="5" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="96">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="97">
+        <v>1.6</v>
+      </c>
+      <c r="F5" s="97">
+        <v>8</v>
+      </c>
+      <c r="G5" s="98">
+        <f>(E5-D5)/F5</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="105">
+        <f>D5+$G$5</f>
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="95">
+        <f>D5+G5/2</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="G7" s="104">
+        <f>$G$5*(LOG10(F7^2+1)/F7)</f>
+        <v>2.7783438891725111E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="105">
+        <f>E7+$G$5</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="95">
+        <f>E7+$G$5/2</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="G8" s="104">
+        <f>$G$5*(LOG10(F8^2+1)/F8)</f>
+        <v>2.9402596362380046E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="105">
+        <f t="shared" ref="E9:E14" si="0">E8+$G$5</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F9" s="95">
+        <f t="shared" ref="F9:F14" si="1">E8+$G$5/2</f>
+        <v>1.05</v>
+      </c>
+      <c r="G9" s="104">
+        <f t="shared" ref="G9:G14" si="2">$G$5*(LOG10(F9^2+1)/F9)</f>
+        <v>3.0736762330471408E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="105">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F10" s="95">
+        <f t="shared" si="1"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="G10" s="104">
+        <f t="shared" si="2"/>
+        <v>3.182223675353734E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="105">
+        <f t="shared" si="0"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="F11" s="95">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="G11" s="104">
+        <f t="shared" si="2"/>
+        <v>3.2693109925104859E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="4">
+        <v>6</v>
+      </c>
+      <c r="E12" s="105">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="F12" s="95">
+        <f t="shared" si="1"/>
+        <v>1.3500000000000003</v>
+      </c>
+      <c r="G12" s="104">
+        <f t="shared" si="2"/>
+        <v>3.3380292636815218E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="4">
+        <v>7</v>
+      </c>
+      <c r="E13" s="105">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="F13" s="95">
+        <f t="shared" si="1"/>
+        <v>1.4500000000000004</v>
+      </c>
+      <c r="G13" s="104">
+        <f t="shared" si="2"/>
+        <v>3.3911157942811548E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="4">
+        <v>8</v>
+      </c>
+      <c r="E14" s="105">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000005</v>
+      </c>
+      <c r="F14" s="95">
+        <f t="shared" si="1"/>
+        <v>1.5500000000000005</v>
+      </c>
+      <c r="G14" s="104">
+        <f t="shared" si="2"/>
+        <v>3.4309557024217577E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="5"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="103">
+        <f>SUM(G7:G14)</f>
+        <v>0.25403915186706311</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/reports/Solutions.xlsx
+++ b/reports/Solutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Comp_Math\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FBCED8-4758-409F-A6B7-A7E42E561362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587044EA-0FCC-4CFB-91F9-794A8360AF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17475" yWindow="2010" windowWidth="16485" windowHeight="11460" firstSheet="3" activeTab="7" xr2:uid="{4DD3A309-C25B-4EE0-85DE-85C6E8C93D45}"/>
+    <workbookView xWindow="-19245" yWindow="1575" windowWidth="22650" windowHeight="11460" firstSheet="7" activeTab="8" xr2:uid="{4DD3A309-C25B-4EE0-85DE-85C6E8C93D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab1.шаговый" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Lab2_метод_Якоби" sheetId="6" r:id="rId6"/>
     <sheet name="Lab2_метод_Зейделя" sheetId="7" r:id="rId7"/>
     <sheet name="Lab3_метод центральных" sheetId="8" r:id="rId8"/>
+    <sheet name="Lab3_метод_трапеций" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
   <si>
     <t>Шаговый метод</t>
   </si>
@@ -156,6 +157,12 @@
   <si>
     <t>|=</t>
   </si>
+  <si>
+    <t>Вычисление интеграла методом трапеций</t>
+  </si>
+  <si>
+    <t>Yk(x)</t>
+  </si>
 </sst>
 </file>
 
@@ -220,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -701,11 +708,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -857,6 +897,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -953,6 +996,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -991,6 +1040,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1734,6 +1816,82 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB619F3-406D-4B6E-B7BC-52A1C2CDEEC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6581775" y="457200"/>
+          <a:ext cx="1323975" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -2045,10 +2203,10 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -2208,50 +2366,50 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="67">
         <v>0.85</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
     </row>
     <row r="5" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="67">
         <v>1E-3</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
@@ -2414,10 +2572,10 @@
       </c>
     </row>
     <row r="3" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="65"/>
       <c r="H3" s="36"/>
       <c r="I3" s="1">
         <f>I2^3+0.2*I2^2+0.5*I2-1.2</f>
@@ -2469,22 +2627,22 @@
       <c r="D6" s="6">
         <v>1E-3</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="7" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="77"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
     </row>
     <row r="9" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="31"/>
@@ -2545,10 +2703,10 @@
   <sheetData>
     <row r="14" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="65"/>
     </row>
     <row r="16" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
@@ -2575,18 +2733,18 @@
       </c>
     </row>
     <row r="19" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="83"/>
+      <c r="D19" s="84"/>
     </row>
     <row r="20" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
     </row>
     <row r="21" spans="3:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
     </row>
     <row r="22" spans="3:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="31"/>
@@ -2679,14 +2837,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="53">
@@ -2919,16 +3077,16 @@
   <sheetData>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="93"/>
     </row>
     <row r="6" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="58" t="s">
@@ -2943,11 +3101,11 @@
       <c r="E6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
       <c r="I6" s="59" t="s">
         <v>24</v>
       </c>
@@ -3661,16 +3819,16 @@
   <sheetData>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="93"/>
     </row>
     <row r="6" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="58" t="s">
@@ -3685,11 +3843,11 @@
       <c r="E6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
       <c r="I6" s="59" t="s">
         <v>24</v>
       </c>
@@ -4389,10 +4547,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBA286C-4F68-42A3-9DE7-519B23D0087E}">
-  <dimension ref="D2:H15"/>
+  <dimension ref="D2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G15"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4403,13 +4561,13 @@
   <sheetData>
     <row r="2" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="93"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D4" s="58" t="s">
@@ -4424,19 +4582,19 @@
       <c r="G4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="95"/>
     </row>
     <row r="5" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="96">
+      <c r="D5" s="99">
         <v>0.8</v>
       </c>
-      <c r="E5" s="97">
+      <c r="E5" s="100">
         <v>1.6</v>
       </c>
-      <c r="F5" s="97">
+      <c r="F5" s="100">
         <v>8</v>
       </c>
-      <c r="G5" s="98">
+      <c r="G5" s="101">
         <f>(E5-D5)/F5</f>
         <v>0.1</v>
       </c>
@@ -4448,10 +4606,10 @@
       <c r="E6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="106" t="s">
+      <c r="F6" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="107" t="s">
+      <c r="G6" s="110" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4459,15 +4617,15 @@
       <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="105">
+      <c r="E7" s="108">
         <f>D5+$G$5</f>
         <v>0.9</v>
       </c>
-      <c r="F7" s="95">
+      <c r="F7" s="98">
         <f>D5+G5/2</f>
         <v>0.85000000000000009</v>
       </c>
-      <c r="G7" s="104">
+      <c r="G7" s="107">
         <f>$G$5*(LOG10(F7^2+1)/F7)</f>
         <v>2.7783438891725111E-2</v>
       </c>
@@ -4476,15 +4634,15 @@
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="105">
+      <c r="E8" s="108">
         <f>E7+$G$5</f>
         <v>1</v>
       </c>
-      <c r="F8" s="95">
+      <c r="F8" s="98">
         <f>E7+$G$5/2</f>
         <v>0.95000000000000007</v>
       </c>
-      <c r="G8" s="104">
+      <c r="G8" s="107">
         <f>$G$5*(LOG10(F8^2+1)/F8)</f>
         <v>2.9402596362380046E-2</v>
       </c>
@@ -4493,15 +4651,15 @@
       <c r="D9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="105">
+      <c r="E9" s="108">
         <f t="shared" ref="E9:E14" si="0">E8+$G$5</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F9" s="95">
+      <c r="F9" s="98">
         <f t="shared" ref="F9:F14" si="1">E8+$G$5/2</f>
         <v>1.05</v>
       </c>
-      <c r="G9" s="104">
+      <c r="G9" s="107">
         <f t="shared" ref="G9:G14" si="2">$G$5*(LOG10(F9^2+1)/F9)</f>
         <v>3.0736762330471408E-2</v>
       </c>
@@ -4510,15 +4668,15 @@
       <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="105">
+      <c r="E10" s="108">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="F10" s="95">
+      <c r="F10" s="98">
         <f t="shared" si="1"/>
         <v>1.1500000000000001</v>
       </c>
-      <c r="G10" s="104">
+      <c r="G10" s="107">
         <f t="shared" si="2"/>
         <v>3.182223675353734E-2</v>
       </c>
@@ -4527,15 +4685,15 @@
       <c r="D11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="105">
+      <c r="E11" s="108">
         <f t="shared" si="0"/>
         <v>1.3000000000000003</v>
       </c>
-      <c r="F11" s="95">
+      <c r="F11" s="98">
         <f t="shared" si="1"/>
         <v>1.2500000000000002</v>
       </c>
-      <c r="G11" s="104">
+      <c r="G11" s="107">
         <f t="shared" si="2"/>
         <v>3.2693109925104859E-2</v>
       </c>
@@ -4544,15 +4702,15 @@
       <c r="D12" s="4">
         <v>6</v>
       </c>
-      <c r="E12" s="105">
+      <c r="E12" s="108">
         <f t="shared" si="0"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="F12" s="95">
+      <c r="F12" s="98">
         <f t="shared" si="1"/>
         <v>1.3500000000000003</v>
       </c>
-      <c r="G12" s="104">
+      <c r="G12" s="107">
         <f t="shared" si="2"/>
         <v>3.3380292636815218E-2</v>
       </c>
@@ -4561,15 +4719,15 @@
       <c r="D13" s="4">
         <v>7</v>
       </c>
-      <c r="E13" s="105">
+      <c r="E13" s="108">
         <f t="shared" si="0"/>
         <v>1.5000000000000004</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="98">
         <f t="shared" si="1"/>
         <v>1.4500000000000004</v>
       </c>
-      <c r="G13" s="104">
+      <c r="G13" s="107">
         <f t="shared" si="2"/>
         <v>3.3911157942811548E-2</v>
       </c>
@@ -4578,33 +4736,1144 @@
       <c r="D14" s="4">
         <v>8</v>
       </c>
-      <c r="E14" s="105">
+      <c r="E14" s="108">
         <f t="shared" si="0"/>
         <v>1.6000000000000005</v>
       </c>
-      <c r="F14" s="95">
+      <c r="F14" s="98">
         <f t="shared" si="1"/>
         <v>1.5500000000000005</v>
       </c>
-      <c r="G14" s="104">
+      <c r="G14" s="107">
         <f t="shared" si="2"/>
         <v>3.4309557024217577E-2</v>
       </c>
     </row>
     <row r="15" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102" t="s">
+      <c r="E15" s="105"/>
+      <c r="F15" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="103">
+      <c r="G15" s="106">
         <f>SUM(G7:G14)</f>
         <v>0.25403915186706311</v>
       </c>
     </row>
+    <row r="17" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="99">
+        <v>0.8</v>
+      </c>
+      <c r="E20" s="100">
+        <v>1.6</v>
+      </c>
+      <c r="F20" s="100">
+        <v>20</v>
+      </c>
+      <c r="G20" s="101">
+        <f>(E20-D20)/F20</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="108">
+        <f>$D$20+$G$20</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F22" s="98">
+        <f>$D$20+$G$20/2</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="G22" s="107">
+        <f>$G$20*(LOG10(F22^2+1)/F22)</f>
+        <v>1.0894641896506201E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="108">
+        <f>E22+$G$20</f>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="F23" s="98">
+        <f>E22+$G$20/2</f>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="G23" s="107">
+        <f t="shared" ref="G23:G41" si="3">$G$20*(LOG10(F23^2+1)/F23)</f>
+        <v>1.1183692976432484E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
+        <v>3</v>
+      </c>
+      <c r="E24" s="108">
+        <f t="shared" ref="E24:E41" si="4">E23+$G$20</f>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="F24" s="98">
+        <f t="shared" ref="F24:F41" si="5">E23+$G$20/2</f>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="G24" s="107">
+        <f t="shared" si="3"/>
+        <v>1.145238110529709E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="4">
+        <v>4</v>
+      </c>
+      <c r="E25" s="108">
+        <f t="shared" si="4"/>
+        <v>0.96000000000000019</v>
+      </c>
+      <c r="F25" s="98">
+        <f t="shared" si="5"/>
+        <v>0.94000000000000017</v>
+      </c>
+      <c r="G25" s="107">
+        <f t="shared" si="3"/>
+        <v>1.1701646032795103E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="4">
+        <v>5</v>
+      </c>
+      <c r="E26" s="108">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F26" s="98">
+        <f t="shared" si="5"/>
+        <v>0.9800000000000002</v>
+      </c>
+      <c r="G26" s="107">
+        <f t="shared" si="3"/>
+        <v>1.193243648328947E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="4">
+        <v>6</v>
+      </c>
+      <c r="E27" s="108">
+        <f t="shared" si="4"/>
+        <v>1.0400000000000003</v>
+      </c>
+      <c r="F27" s="98">
+        <f t="shared" si="5"/>
+        <v>1.0200000000000002</v>
+      </c>
+      <c r="G27" s="107">
+        <f t="shared" si="3"/>
+        <v>1.2145698621927423E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="4">
+        <v>7</v>
+      </c>
+      <c r="E28" s="108">
+        <f t="shared" si="4"/>
+        <v>1.0800000000000003</v>
+      </c>
+      <c r="F28" s="98">
+        <f t="shared" si="5"/>
+        <v>1.0600000000000003</v>
+      </c>
+      <c r="G28" s="107">
+        <f t="shared" si="3"/>
+        <v>1.2342366666759221E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="4">
+        <v>8</v>
+      </c>
+      <c r="E29" s="108">
+        <f t="shared" si="4"/>
+        <v>1.1200000000000003</v>
+      </c>
+      <c r="F29" s="98">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000003</v>
+      </c>
+      <c r="G29" s="107">
+        <f t="shared" si="3"/>
+        <v>1.2523355406731301E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="4">
+        <v>9</v>
+      </c>
+      <c r="E30" s="108">
+        <f t="shared" si="4"/>
+        <v>1.1600000000000004</v>
+      </c>
+      <c r="F30" s="98">
+        <f t="shared" si="5"/>
+        <v>1.1400000000000003</v>
+      </c>
+      <c r="G30" s="107">
+        <f t="shared" si="3"/>
+        <v>1.2689554385050429E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="4">
+        <v>10</v>
+      </c>
+      <c r="E31" s="108">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000004</v>
+      </c>
+      <c r="F31" s="98">
+        <f t="shared" si="5"/>
+        <v>1.1800000000000004</v>
+      </c>
+      <c r="G31" s="107">
+        <f t="shared" si="3"/>
+        <v>1.2841823516612528E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D32" s="4">
+        <v>11</v>
+      </c>
+      <c r="E32" s="108">
+        <f t="shared" si="4"/>
+        <v>1.2400000000000004</v>
+      </c>
+      <c r="F32" s="98">
+        <f t="shared" si="5"/>
+        <v>1.2200000000000004</v>
+      </c>
+      <c r="G32" s="107">
+        <f t="shared" si="3"/>
+        <v>1.2980989923627282E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="4">
+        <v>12</v>
+      </c>
+      <c r="E33" s="108">
+        <f t="shared" si="4"/>
+        <v>1.2800000000000005</v>
+      </c>
+      <c r="F33" s="98">
+        <f t="shared" si="5"/>
+        <v>1.2600000000000005</v>
+      </c>
+      <c r="G33" s="107">
+        <f t="shared" si="3"/>
+        <v>1.3107845792649229E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="4">
+        <v>13</v>
+      </c>
+      <c r="E34" s="108">
+        <f t="shared" si="4"/>
+        <v>1.3200000000000005</v>
+      </c>
+      <c r="F34" s="98">
+        <f t="shared" si="5"/>
+        <v>1.3000000000000005</v>
+      </c>
+      <c r="G34" s="107">
+        <f t="shared" si="3"/>
+        <v>1.322314707699717E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="4">
+        <v>14</v>
+      </c>
+      <c r="E35" s="108">
+        <f t="shared" si="4"/>
+        <v>1.3600000000000005</v>
+      </c>
+      <c r="F35" s="98">
+        <f t="shared" si="5"/>
+        <v>1.3400000000000005</v>
+      </c>
+      <c r="G35" s="107">
+        <f t="shared" si="3"/>
+        <v>1.3327612889605578E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="4">
+        <v>15</v>
+      </c>
+      <c r="E36" s="108">
+        <f t="shared" si="4"/>
+        <v>1.4000000000000006</v>
+      </c>
+      <c r="F36" s="98">
+        <f t="shared" si="5"/>
+        <v>1.3800000000000006</v>
+      </c>
+      <c r="G36" s="107">
+        <f t="shared" si="3"/>
+        <v>1.3421925451743717E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="4">
+        <v>16</v>
+      </c>
+      <c r="E37" s="108">
+        <f t="shared" si="4"/>
+        <v>1.4400000000000006</v>
+      </c>
+      <c r="F37" s="98">
+        <f t="shared" si="5"/>
+        <v>1.4200000000000006</v>
+      </c>
+      <c r="G37" s="107">
+        <f t="shared" si="3"/>
+        <v>1.3506730482145977E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D38" s="4">
+        <v>17</v>
+      </c>
+      <c r="E38" s="108">
+        <f t="shared" si="4"/>
+        <v>1.4800000000000006</v>
+      </c>
+      <c r="F38" s="98">
+        <f t="shared" si="5"/>
+        <v>1.4600000000000006</v>
+      </c>
+      <c r="G38" s="107">
+        <f t="shared" si="3"/>
+        <v>1.3582637928566463E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="4">
+        <v>18</v>
+      </c>
+      <c r="E39" s="108">
+        <f t="shared" si="4"/>
+        <v>1.5200000000000007</v>
+      </c>
+      <c r="F39" s="98">
+        <f t="shared" si="5"/>
+        <v>1.5000000000000007</v>
+      </c>
+      <c r="G39" s="107">
+        <f t="shared" si="3"/>
+        <v>1.3650222959436652E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D40" s="4">
+        <v>19</v>
+      </c>
+      <c r="E40" s="108">
+        <f t="shared" si="4"/>
+        <v>1.5600000000000007</v>
+      </c>
+      <c r="F40" s="98">
+        <f t="shared" si="5"/>
+        <v>1.5400000000000007</v>
+      </c>
+      <c r="G40" s="107">
+        <f t="shared" si="3"/>
+        <v>1.3710027147135291E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D41" s="4">
+        <v>20</v>
+      </c>
+      <c r="E41" s="108">
+        <f t="shared" si="4"/>
+        <v>1.6000000000000008</v>
+      </c>
+      <c r="F41" s="98">
+        <f t="shared" si="5"/>
+        <v>1.5800000000000007</v>
+      </c>
+      <c r="G41" s="107">
+        <f t="shared" si="3"/>
+        <v>1.3762559786431221E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="5"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="106">
+        <f>SUM(G22:G41)</f>
+        <v>0.25398129652973983</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D18:G18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51559526-6A96-4AF8-9018-62B822743CE4}">
+  <dimension ref="D2:N44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="94"/>
+      <c r="K3" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="104"/>
+    </row>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="95"/>
+      <c r="K4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="99">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="100">
+        <v>1.6</v>
+      </c>
+      <c r="F5" s="100">
+        <v>8</v>
+      </c>
+      <c r="G5" s="101">
+        <f>(E5-D5)/F5</f>
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="99">
+        <v>0</v>
+      </c>
+      <c r="L5" s="100">
+        <v>1</v>
+      </c>
+      <c r="M5" s="100">
+        <v>5</v>
+      </c>
+      <c r="N5" s="101">
+        <f>(L5-K5)/M5</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="K6" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="63"/>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="111">
+        <v>0</v>
+      </c>
+      <c r="E7" s="114">
+        <f>D5</f>
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="112">
+        <f>LOG10(E7^2+1)/E7</f>
+        <v>0.26855481005962234</v>
+      </c>
+      <c r="G7" s="113"/>
+      <c r="K7" s="111">
+        <v>0</v>
+      </c>
+      <c r="L7" s="114">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="112">
+        <f>1/(L7^2+1)</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="113"/>
+    </row>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="108">
+        <f>E7+$G$5</f>
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="112">
+        <f t="shared" ref="F8:F15" si="0">LOG10(E8^2+1)/E8</f>
+        <v>0.28630952763242723</v>
+      </c>
+      <c r="G8" s="107"/>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="108">
+        <f>L7+$N$5</f>
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="112">
+        <f>1/(L8^2+1)</f>
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="N8" s="107"/>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="108">
+        <f t="shared" ref="E9:E15" si="1">E8+$G$5</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="112">
+        <f t="shared" si="0"/>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="G9" s="107"/>
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
+      <c r="L9" s="108">
+        <f t="shared" ref="L9:L11" si="2">L8+$N$5</f>
+        <v>0.4</v>
+      </c>
+      <c r="M9" s="112">
+        <f t="shared" ref="M9:M12" si="3">1/(L9^2+1)</f>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="N9" s="107"/>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="108">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F10" s="112">
+        <f t="shared" si="0"/>
+        <v>0.31308388516828245</v>
+      </c>
+      <c r="G10" s="107"/>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="108">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="M10" s="112">
+        <f t="shared" si="3"/>
+        <v>0.73529411764705876</v>
+      </c>
+      <c r="N10" s="107"/>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="E11" s="108">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F11" s="112">
+        <f t="shared" si="0"/>
+        <v>0.3228248552822745</v>
+      </c>
+      <c r="G11" s="107"/>
+      <c r="K11" s="4">
+        <v>4</v>
+      </c>
+      <c r="L11" s="108">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="112">
+        <f t="shared" si="3"/>
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="N11" s="107"/>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="108">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="F12" s="112">
+        <f t="shared" si="0"/>
+        <v>0.3305786769249292</v>
+      </c>
+      <c r="G12" s="107"/>
+      <c r="K12" s="4">
+        <v>5</v>
+      </c>
+      <c r="L12" s="108">
+        <f>L11+$N$5</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="112">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="107"/>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="4">
+        <v>6</v>
+      </c>
+      <c r="E13" s="108">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="F13" s="112">
+        <f t="shared" si="0"/>
+        <v>0.33663693647067039</v>
+      </c>
+      <c r="G13" s="107"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="107"/>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="4">
+        <v>7</v>
+      </c>
+      <c r="E14" s="108">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="F14" s="112">
+        <f t="shared" si="0"/>
+        <v>0.34125557398591627</v>
+      </c>
+      <c r="G14" s="107"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="107"/>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="4">
+        <v>8</v>
+      </c>
+      <c r="E15" s="108">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000005</v>
+      </c>
+      <c r="F15" s="112">
+        <f t="shared" si="0"/>
+        <v>0.34465624873304701</v>
+      </c>
+      <c r="G15" s="107"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="107"/>
+    </row>
+    <row r="16" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="5"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="106">
+        <f>G5*((F7+F15)/2+SUM(F8:F14))</f>
+        <v>0.25383249805248165</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="106">
+        <f>N5*((M7+M12)/2+SUM(M8:M11))</f>
+        <v>0.78373152845274752</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="99">
+        <v>0.8</v>
+      </c>
+      <c r="E21" s="100">
+        <v>1.6</v>
+      </c>
+      <c r="F21" s="100">
+        <v>20</v>
+      </c>
+      <c r="G21" s="101">
+        <f>(E21-D21)/F21</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="117"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="58">
+        <v>0</v>
+      </c>
+      <c r="E23" s="118">
+        <f>D21</f>
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="119">
+        <f>LOG10(E23^2+1)/E23</f>
+        <v>0.26855481005962234</v>
+      </c>
+      <c r="G23" s="120"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="97">
+        <f>E23+$G$21</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F24" s="96">
+        <f t="shared" ref="F24:F44" si="4">LOG10(E24^2+1)/E24</f>
+        <v>0.2760442706505693</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="97">
+        <f t="shared" ref="E25:E43" si="5">E24+$G$21</f>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="F25" s="96">
+        <f t="shared" si="4"/>
+        <v>0.28301310091486914</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="97">
+        <f t="shared" si="5"/>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="F26" s="96">
+        <f t="shared" si="4"/>
+        <v>0.2894845559517798</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="4">
+        <v>4</v>
+      </c>
+      <c r="E27" s="97">
+        <f t="shared" si="5"/>
+        <v>0.96000000000000019</v>
+      </c>
+      <c r="F27" s="96">
+        <f t="shared" si="4"/>
+        <v>0.29548228131128212</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="4">
+        <v>5</v>
+      </c>
+      <c r="E28" s="97">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F28" s="96">
+        <f t="shared" si="4"/>
+        <v>0.30102999566398125</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="4">
+        <v>6</v>
+      </c>
+      <c r="E29" s="97">
+        <f t="shared" si="5"/>
+        <v>1.0400000000000003</v>
+      </c>
+      <c r="F29" s="96">
+        <f t="shared" si="4"/>
+        <v>0.30615123001683764</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="4">
+        <v>7</v>
+      </c>
+      <c r="E30" s="97">
+        <f t="shared" si="5"/>
+        <v>1.0800000000000003</v>
+      </c>
+      <c r="F30" s="96">
+        <f t="shared" si="4"/>
+        <v>0.31086911759726876</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="4">
+        <v>8</v>
+      </c>
+      <c r="E31" s="97">
+        <f t="shared" si="5"/>
+        <v>1.1200000000000003</v>
+      </c>
+      <c r="F31" s="96">
+        <f t="shared" si="4"/>
+        <v>0.31520622836185824</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D32" s="4">
+        <v>9</v>
+      </c>
+      <c r="E32" s="97">
+        <f t="shared" si="5"/>
+        <v>1.1600000000000004</v>
+      </c>
+      <c r="F32" s="96">
+        <f t="shared" si="4"/>
+        <v>0.31918444220778791</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="4">
+        <v>10</v>
+      </c>
+      <c r="E33" s="97">
+        <f t="shared" si="5"/>
+        <v>1.2000000000000004</v>
+      </c>
+      <c r="F33" s="96">
+        <f t="shared" si="4"/>
+        <v>0.32282485528227461</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="4">
+        <v>11</v>
+      </c>
+      <c r="E34" s="97">
+        <f t="shared" si="5"/>
+        <v>1.2400000000000004</v>
+      </c>
+      <c r="F34" s="96">
+        <f t="shared" si="4"/>
+        <v>0.32614771422379824</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="4">
+        <v>12</v>
+      </c>
+      <c r="E35" s="97">
+        <f t="shared" si="5"/>
+        <v>1.2800000000000005</v>
+      </c>
+      <c r="F35" s="96">
+        <f t="shared" si="4"/>
+        <v>0.32917237367222157</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="4">
+        <v>13</v>
+      </c>
+      <c r="E36" s="97">
+        <f t="shared" si="5"/>
+        <v>1.3200000000000005</v>
+      </c>
+      <c r="F36" s="96">
+        <f t="shared" si="4"/>
+        <v>0.33191727291144257</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="4">
+        <v>14</v>
+      </c>
+      <c r="E37" s="97">
+        <f t="shared" si="5"/>
+        <v>1.3600000000000005</v>
+      </c>
+      <c r="F37" s="96">
+        <f t="shared" si="4"/>
+        <v>0.33439992802880025</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D38" s="4">
+        <v>15</v>
+      </c>
+      <c r="E38" s="97">
+        <f t="shared" si="5"/>
+        <v>1.4000000000000006</v>
+      </c>
+      <c r="F38" s="96">
+        <f t="shared" si="4"/>
+        <v>0.33663693647067044</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="4">
+        <v>16</v>
+      </c>
+      <c r="E39" s="97">
+        <f t="shared" si="5"/>
+        <v>1.4400000000000006</v>
+      </c>
+      <c r="F39" s="96">
+        <f t="shared" si="4"/>
+        <v>0.33864399133167949</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D40" s="4">
+        <v>17</v>
+      </c>
+      <c r="E40" s="97">
+        <f t="shared" si="5"/>
+        <v>1.4800000000000006</v>
+      </c>
+      <c r="F40" s="96">
+        <f t="shared" si="4"/>
+        <v>0.34043590312943361</v>
+      </c>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D41" s="4">
+        <v>18</v>
+      </c>
+      <c r="E41" s="97">
+        <f t="shared" si="5"/>
+        <v>1.5200000000000007</v>
+      </c>
+      <c r="F41" s="96">
+        <f t="shared" si="4"/>
+        <v>0.34202662718530225</v>
+      </c>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D42" s="4">
+        <v>19</v>
+      </c>
+      <c r="E42" s="97">
+        <f t="shared" si="5"/>
+        <v>1.5600000000000007</v>
+      </c>
+      <c r="F42" s="96">
+        <f t="shared" si="4"/>
+        <v>0.34342929505503661</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D43" s="4">
+        <v>20</v>
+      </c>
+      <c r="E43" s="97">
+        <f t="shared" si="5"/>
+        <v>1.6000000000000008</v>
+      </c>
+      <c r="F43" s="96">
+        <f t="shared" si="4"/>
+        <v>0.34465624873304695</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="5"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="106">
+        <f>G21*((F23+F43)/2+SUM(F24:F42))</f>
+        <v>0.25394822597452915</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/reports/Solutions.xlsx
+++ b/reports/Solutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Comp_Math\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Al-Kh\PyCharmProjects\Comp_Math\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587044EA-0FCC-4CFB-91F9-794A8360AF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8287594-79CF-4D6C-A83A-0F8BF7DB93E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19245" yWindow="1575" windowWidth="22650" windowHeight="11460" firstSheet="7" activeTab="8" xr2:uid="{4DD3A309-C25B-4EE0-85DE-85C6E8C93D45}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="17923" windowHeight="12905" firstSheet="8" activeTab="9" xr2:uid="{4DD3A309-C25B-4EE0-85DE-85C6E8C93D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab1.шаговый" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="Lab2.метод_Гаусса" sheetId="5" r:id="rId5"/>
     <sheet name="Lab2_метод_Якоби" sheetId="6" r:id="rId6"/>
     <sheet name="Lab2_метод_Зейделя" sheetId="7" r:id="rId7"/>
-    <sheet name="Lab3_метод центральных" sheetId="8" r:id="rId8"/>
-    <sheet name="Lab3_метод_трапеций" sheetId="9" r:id="rId9"/>
+    <sheet name="Lab4_метод центральных" sheetId="8" r:id="rId8"/>
+    <sheet name="Lab4_метод_трапеций" sheetId="9" r:id="rId9"/>
+    <sheet name="Lab4_метод_симпсона" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
   <si>
     <t>Шаговый метод</t>
   </si>
@@ -163,6 +164,9 @@
   <si>
     <t>Yk(x)</t>
   </si>
+  <si>
+    <t>Вычисление интеграла методом Симпсона</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -708,44 +712,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,123 +868,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,57 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1892,6 +1848,82 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B898FF16-A1E0-469E-AC23-ADE1129956C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6850820" y="439469"/>
+          <a:ext cx="1380538" cy="629383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -2195,20 +2227,20 @@
       <selection activeCell="B3" sqref="B3:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+    <row r="2" spans="2:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:3" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="65"/>
-    </row>
-    <row r="4" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="85"/>
+    </row>
+    <row r="4" spans="2:3" ht="28.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2216,7 +2248,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2224,7 +2256,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2232,7 +2264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <f>C4</f>
         <v>0.8</v>
@@ -2242,7 +2274,7 @@
         <v>-0.15999999999999992</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <f>B7+$C$5</f>
         <v>0.81</v>
@@ -2252,7 +2284,7 @@
         <v>-0.13233899999999976</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <f t="shared" ref="B9:B13" si="1">B8+$C$5</f>
         <v>0.82000000000000006</v>
@@ -2262,7 +2294,7 @@
         <v>-0.1041519999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <f t="shared" si="1"/>
         <v>0.83000000000000007</v>
@@ -2272,7 +2304,7 @@
         <v>-7.5432999999999639E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <f t="shared" si="1"/>
         <v>0.84000000000000008</v>
@@ -2282,7 +2314,7 @@
         <v>-4.6175999999999773E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <f t="shared" si="1"/>
         <v>0.85000000000000009</v>
@@ -2292,7 +2324,7 @@
         <v>-1.6374999999999806E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <f t="shared" si="1"/>
         <v>0.8600000000000001</v>
@@ -2302,7 +2334,7 @@
         <v>1.397600000000021E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <f>B13+$C$5</f>
         <v>0.87000000000000011</v>
@@ -2312,7 +2344,7 @@
         <v>4.488300000000045E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <f t="shared" ref="B15:B16" si="2">B14+$C$5</f>
         <v>0.88000000000000012</v>
@@ -2322,7 +2354,7 @@
         <v>7.635200000000042E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <f t="shared" si="2"/>
         <v>0.89000000000000012</v>
@@ -2332,7 +2364,7 @@
         <v>0.10838900000000051</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
         <f>B16+$C$5</f>
         <v>0.90000000000000013</v>
@@ -2348,6 +2380,575 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813F104F-B533-45EA-B96B-79D46D66AC3D}">
+  <dimension ref="D2:H44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="7" width="16.69921875" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="63"/>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="64"/>
+    </row>
+    <row r="5" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="68">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="69">
+        <v>1.6</v>
+      </c>
+      <c r="F5" s="69">
+        <v>8</v>
+      </c>
+      <c r="G5" s="70">
+        <f>(E5-D5)/F5</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="73"/>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="58">
+        <v>0</v>
+      </c>
+      <c r="E7" s="80">
+        <f>D5</f>
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="81">
+        <f>LOG10(E7^2+1)/E7</f>
+        <v>0.26855481005962234</v>
+      </c>
+      <c r="G7" s="82"/>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="66">
+        <f>E7+$G$5</f>
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="65">
+        <f t="shared" ref="F8:F15" si="0">LOG10(E8^2+1)/E8</f>
+        <v>0.28630952763242723</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="66">
+        <f t="shared" ref="E9:E15" si="1">E8+$G$5</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="65">
+        <f t="shared" si="0"/>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="66">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F10" s="65">
+        <f t="shared" si="0"/>
+        <v>0.31308388516828245</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="E11" s="66">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F11" s="65">
+        <f t="shared" si="0"/>
+        <v>0.3228248552822745</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="66">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="F12" s="65">
+        <f t="shared" si="0"/>
+        <v>0.3305786769249292</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="4">
+        <v>6</v>
+      </c>
+      <c r="E13" s="66">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="F13" s="65">
+        <f t="shared" si="0"/>
+        <v>0.33663693647067039</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="4">
+        <v>7</v>
+      </c>
+      <c r="E14" s="66">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="F14" s="65">
+        <f t="shared" si="0"/>
+        <v>0.34125557398591627</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="4">
+        <v>8</v>
+      </c>
+      <c r="E15" s="66">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000005</v>
+      </c>
+      <c r="F15" s="65">
+        <f t="shared" si="0"/>
+        <v>0.34465624873304701</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="5"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="75">
+        <f>(G5/3)*(F7+4*SUM(F8,F10,F12,F14)+2*SUM(F9,F11,F13)+F15)</f>
+        <v>0.25397017628242474</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="116"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="68">
+        <v>0.8</v>
+      </c>
+      <c r="E21" s="69">
+        <v>1.6</v>
+      </c>
+      <c r="F21" s="69">
+        <v>20</v>
+      </c>
+      <c r="G21" s="70">
+        <f>(E21-D21)/F21</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="73"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="58">
+        <v>0</v>
+      </c>
+      <c r="E23" s="80">
+        <f>D21</f>
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="81">
+        <f>LOG10(E23^2+1)/E23</f>
+        <v>0.26855481005962234</v>
+      </c>
+      <c r="G23" s="82"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="66">
+        <f>E23+$G$21</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F24" s="65">
+        <f t="shared" ref="F24:F43" si="2">LOG10(E24^2+1)/E24</f>
+        <v>0.2760442706505693</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="66">
+        <f t="shared" ref="E25:E43" si="3">E24+$G$21</f>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="F25" s="65">
+        <f t="shared" si="2"/>
+        <v>0.28301310091486914</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="66">
+        <f t="shared" si="3"/>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="F26" s="65">
+        <f t="shared" si="2"/>
+        <v>0.2894845559517798</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="4">
+        <v>4</v>
+      </c>
+      <c r="E27" s="66">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000019</v>
+      </c>
+      <c r="F27" s="65">
+        <f t="shared" si="2"/>
+        <v>0.29548228131128212</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D28" s="4">
+        <v>5</v>
+      </c>
+      <c r="E28" s="66">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F28" s="65">
+        <f t="shared" si="2"/>
+        <v>0.30102999566398125</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D29" s="4">
+        <v>6</v>
+      </c>
+      <c r="E29" s="66">
+        <f t="shared" si="3"/>
+        <v>1.0400000000000003</v>
+      </c>
+      <c r="F29" s="65">
+        <f t="shared" si="2"/>
+        <v>0.30615123001683764</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D30" s="4">
+        <v>7</v>
+      </c>
+      <c r="E30" s="66">
+        <f t="shared" si="3"/>
+        <v>1.0800000000000003</v>
+      </c>
+      <c r="F30" s="65">
+        <f t="shared" si="2"/>
+        <v>0.31086911759726876</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D31" s="4">
+        <v>8</v>
+      </c>
+      <c r="E31" s="66">
+        <f t="shared" si="3"/>
+        <v>1.1200000000000003</v>
+      </c>
+      <c r="F31" s="65">
+        <f t="shared" si="2"/>
+        <v>0.31520622836185824</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="4">
+        <v>9</v>
+      </c>
+      <c r="E32" s="66">
+        <f t="shared" si="3"/>
+        <v>1.1600000000000004</v>
+      </c>
+      <c r="F32" s="65">
+        <f t="shared" si="2"/>
+        <v>0.31918444220778791</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D33" s="4">
+        <v>10</v>
+      </c>
+      <c r="E33" s="66">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000004</v>
+      </c>
+      <c r="F33" s="65">
+        <f t="shared" si="2"/>
+        <v>0.32282485528227461</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D34" s="4">
+        <v>11</v>
+      </c>
+      <c r="E34" s="66">
+        <f t="shared" si="3"/>
+        <v>1.2400000000000004</v>
+      </c>
+      <c r="F34" s="65">
+        <f t="shared" si="2"/>
+        <v>0.32614771422379824</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D35" s="4">
+        <v>12</v>
+      </c>
+      <c r="E35" s="66">
+        <f t="shared" si="3"/>
+        <v>1.2800000000000005</v>
+      </c>
+      <c r="F35" s="65">
+        <f t="shared" si="2"/>
+        <v>0.32917237367222157</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D36" s="4">
+        <v>13</v>
+      </c>
+      <c r="E36" s="66">
+        <f t="shared" si="3"/>
+        <v>1.3200000000000005</v>
+      </c>
+      <c r="F36" s="65">
+        <f t="shared" si="2"/>
+        <v>0.33191727291144257</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D37" s="4">
+        <v>14</v>
+      </c>
+      <c r="E37" s="66">
+        <f t="shared" si="3"/>
+        <v>1.3600000000000005</v>
+      </c>
+      <c r="F37" s="65">
+        <f t="shared" si="2"/>
+        <v>0.33439992802880025</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D38" s="4">
+        <v>15</v>
+      </c>
+      <c r="E38" s="66">
+        <f t="shared" si="3"/>
+        <v>1.4000000000000006</v>
+      </c>
+      <c r="F38" s="65">
+        <f t="shared" si="2"/>
+        <v>0.33663693647067044</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D39" s="4">
+        <v>16</v>
+      </c>
+      <c r="E39" s="66">
+        <f t="shared" si="3"/>
+        <v>1.4400000000000006</v>
+      </c>
+      <c r="F39" s="65">
+        <f t="shared" si="2"/>
+        <v>0.33864399133167949</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40" s="4">
+        <v>17</v>
+      </c>
+      <c r="E40" s="66">
+        <f t="shared" si="3"/>
+        <v>1.4800000000000006</v>
+      </c>
+      <c r="F40" s="65">
+        <f t="shared" si="2"/>
+        <v>0.34043590312943361</v>
+      </c>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D41" s="4">
+        <v>18</v>
+      </c>
+      <c r="E41" s="66">
+        <f t="shared" si="3"/>
+        <v>1.5200000000000007</v>
+      </c>
+      <c r="F41" s="65">
+        <f t="shared" si="2"/>
+        <v>0.34202662718530225</v>
+      </c>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D42" s="4">
+        <v>19</v>
+      </c>
+      <c r="E42" s="66">
+        <f t="shared" si="3"/>
+        <v>1.5600000000000007</v>
+      </c>
+      <c r="F42" s="65">
+        <f t="shared" si="2"/>
+        <v>0.34342929505503661</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D43" s="4">
+        <v>20</v>
+      </c>
+      <c r="E43" s="66">
+        <f t="shared" si="3"/>
+        <v>1.6000000000000008</v>
+      </c>
+      <c r="F43" s="65">
+        <f t="shared" si="2"/>
+        <v>0.34465624873304695</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="5"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="75">
+        <f>(G21/3)*(F23+4*SUM(F24,F26,F28,F30,F32,F34,F36,F38,F40,F42)+2*SUM(F25,F27,F29,F31,F33,F35,F37,F39,F41)+F43)</f>
+        <v>0.25397027075266654</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D19:G19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2359,59 +2960,59 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="7" width="10.7109375" customWidth="1"/>
+    <col min="2" max="7" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+    <row r="1" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
-    </row>
-    <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
+    </row>
+    <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="87">
         <v>0.85</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
-    </row>
-    <row r="4" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+    </row>
+    <row r="4" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
-    </row>
-    <row r="5" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
+    </row>
+    <row r="5" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="87">
         <v>1E-3</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
-    </row>
-    <row r="6" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+    </row>
+    <row r="6" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2431,7 +3032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <v>0.85</v>
       </c>
@@ -2455,7 +3056,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
         <f>IF((E7*F7)&lt;0,B7,C7)</f>
         <v>0.85499999999999998</v>
@@ -2481,7 +3082,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19">
         <f>IF((E8*F8)&lt;0,B8,C8)</f>
         <v>0.85499999999999998</v>
@@ -2507,7 +3108,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="21">
         <f>IF((E9*F9)&lt;0,B9,C9)</f>
         <v>0.85499999999999998</v>
@@ -2552,15 +3153,15 @@
       <selection activeCell="C3" sqref="C3:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="3" max="4" width="30.69921875" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H2" s="33" t="s">
         <v>13</v>
       </c>
@@ -2571,11 +3172,11 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="64" t="s">
+    <row r="3" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="65"/>
+      <c r="D3" s="85"/>
       <c r="H3" s="36"/>
       <c r="I3" s="1">
         <f>I2^3+0.2*I2^2+0.5*I2-1.2</f>
@@ -2586,7 +3187,7 @@
         <v>0.14100000000000024</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2603,7 +3204,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2620,35 +3221,35 @@
         <v>5.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6">
         <v>1E-3</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="75"/>
-    </row>
-    <row r="7" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
-    </row>
-    <row r="8" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-    </row>
-    <row r="9" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
+    </row>
+    <row r="7" spans="3:10" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="98"/>
+    </row>
+    <row r="8" spans="3:10" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+    </row>
+    <row r="9" spans="3:10" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="29">
         <v>0.9</v>
       </c>
@@ -2657,7 +3258,7 @@
         <v>0.14100000000000024</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="25">
         <f>C10-(D10/(3*C10^2+0.4*C10+0.5))</f>
         <v>0.8571428571428571</v>
@@ -2667,7 +3268,7 @@
         <v>5.2478134110787167E-3</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:10" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="27">
         <f>C11-(D11/(3*C11^2+0.4*C11+0.5))</f>
         <v>0.85542053392019901</v>
@@ -2696,19 +3297,19 @@
       <selection activeCell="C15" sqref="C15:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="3" max="4" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="64" t="s">
+    <row r="14" spans="3:4" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="65"/>
-    </row>
-    <row r="16" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="85"/>
+    </row>
+    <row r="16" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2716,7 +3317,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
@@ -2724,7 +3325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="37" t="s">
         <v>7</v>
       </c>
@@ -2732,25 +3333,25 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="83" t="s">
+    <row r="19" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="84"/>
-    </row>
-    <row r="20" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="79"/>
-      <c r="D20" s="80"/>
-    </row>
-    <row r="21" spans="3:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-    </row>
-    <row r="22" spans="3:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="104"/>
+    </row>
+    <row r="20" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+    </row>
+    <row r="21" spans="3:4" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+    </row>
+    <row r="22" spans="3:4" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
     </row>
-    <row r="23" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="44">
         <f>(1.2-0.2*0.8^2-0.5*0.8)^(1/3)</f>
         <v>0.87590382797757782</v>
@@ -2760,7 +3361,7 @@
         <v>6.3393417161943688E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="25">
         <f>(1.2-0.2*C23^2-0.5*C23)^(1/3)</f>
         <v>0.84744635324368822</v>
@@ -2770,7 +3371,7 @@
         <v>-2.403717621489454E-2</v>
       </c>
     </row>
-    <row r="25" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="25">
         <f t="shared" ref="C25:C28" si="0">(1.2-0.2*C24^2-0.5*C24)^(1/3)</f>
         <v>0.85845936494243413</v>
@@ -2780,7 +3381,7 @@
         <v>9.2639377756411623E-3</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="25">
         <f t="shared" si="0"/>
         <v>0.85424854292607899</v>
@@ -2790,7 +3391,7 @@
         <v>-3.5477926413849392E-3</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" s="25">
         <f t="shared" si="0"/>
         <v>0.85586605082187872</v>
@@ -2800,7 +3401,7 @@
         <v>1.3619787195218169E-3</v>
       </c>
     </row>
-    <row r="28" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="27">
         <f t="shared" si="0"/>
         <v>0.85524582159107421</v>
@@ -2830,23 +3431,23 @@
       <selection activeCell="B2" sqref="B2:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+    <row r="1" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="53">
         <v>3.11</v>
       </c>
@@ -2862,7 +3463,7 @@
       <c r="F3" s="48"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="56">
         <v>-1.65</v>
       </c>
@@ -2878,7 +3479,7 @@
       <c r="F4" s="49"/>
       <c r="G4" s="42"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="56">
         <v>0.6</v>
       </c>
@@ -2894,7 +3495,7 @@
       <c r="F5" s="49"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="56"/>
       <c r="C6" s="57"/>
       <c r="D6" s="57"/>
@@ -2902,7 +3503,7 @@
       <c r="F6" s="49"/>
       <c r="G6" s="42"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="56">
         <f>B3/$B$3</f>
         <v>1</v>
@@ -2922,7 +3523,7 @@
       <c r="F7" s="49"/>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="56">
         <f>B4-B7*$B$4</f>
         <v>0</v>
@@ -2942,7 +3543,7 @@
       <c r="F8" s="49"/>
       <c r="G8" s="42"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="56">
         <f>B5-B7*$B$5</f>
         <v>0</v>
@@ -2962,7 +3563,7 @@
       <c r="F9" s="49"/>
       <c r="G9" s="42"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="56"/>
       <c r="C10" s="57"/>
       <c r="D10" s="57"/>
@@ -2970,7 +3571,7 @@
       <c r="F10" s="49"/>
       <c r="G10" s="42"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="56">
         <f>B7</f>
         <v>1</v>
@@ -2995,7 +3596,7 @@
         <v>-0.18038680481029712</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="56">
         <f>B8/$C$8</f>
         <v>0</v>
@@ -3020,7 +3621,7 @@
         <v>0.48324945663637592</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="56">
         <f>B9-B12*$C$9</f>
         <v>0</v>
@@ -3045,7 +3646,7 @@
         <v>-0.7386617682940132</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="45"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -3069,26 +3670,26 @@
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="9" max="9" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="91" t="s">
+    <row r="4" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="93"/>
-    </row>
-    <row r="6" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="113"/>
+    </row>
+    <row r="6" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="58" t="s">
         <v>22</v>
       </c>
@@ -3101,16 +3702,16 @@
       <c r="E6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="110"/>
       <c r="I6" s="59" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>0</v>
       </c>
@@ -3134,7 +3735,7 @@
       </c>
       <c r="I7" s="60"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>1</v>
       </c>
@@ -3167,7 +3768,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>2</v>
       </c>
@@ -3200,7 +3801,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>3</v>
       </c>
@@ -3233,7 +3834,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -3266,7 +3867,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>5</v>
       </c>
@@ -3299,7 +3900,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -3332,7 +3933,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -3365,7 +3966,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>8</v>
       </c>
@@ -3398,7 +3999,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>9</v>
       </c>
@@ -3431,7 +4032,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>10</v>
       </c>
@@ -3464,7 +4065,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>11</v>
       </c>
@@ -3497,7 +4098,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>12</v>
       </c>
@@ -3530,7 +4131,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>13</v>
       </c>
@@ -3563,7 +4164,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>14</v>
       </c>
@@ -3596,7 +4197,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>15</v>
       </c>
@@ -3629,7 +4230,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>16</v>
       </c>
@@ -3662,7 +4263,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>17</v>
       </c>
@@ -3695,7 +4296,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>18</v>
       </c>
@@ -3728,7 +4329,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>19</v>
       </c>
@@ -3761,7 +4362,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>20</v>
       </c>
@@ -3811,26 +4412,26 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="9" max="9" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="91" t="s">
+    <row r="4" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="93"/>
-    </row>
-    <row r="6" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="113"/>
+    </row>
+    <row r="6" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="58" t="s">
         <v>22</v>
       </c>
@@ -3843,16 +4444,16 @@
       <c r="E6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="110"/>
       <c r="I6" s="59" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>0</v>
       </c>
@@ -3876,7 +4477,7 @@
       </c>
       <c r="I7" s="60"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>1</v>
       </c>
@@ -3909,7 +4510,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>2</v>
       </c>
@@ -3942,7 +4543,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>3</v>
       </c>
@@ -3975,7 +4576,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -4008,7 +4609,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>5</v>
       </c>
@@ -4041,7 +4642,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -4074,7 +4675,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -4107,7 +4708,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>8</v>
       </c>
@@ -4140,7 +4741,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>9</v>
       </c>
@@ -4173,7 +4774,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>10</v>
       </c>
@@ -4206,7 +4807,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>11</v>
       </c>
@@ -4239,7 +4840,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>12</v>
       </c>
@@ -4272,7 +4873,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>13</v>
       </c>
@@ -4305,7 +4906,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>14</v>
       </c>
@@ -4338,7 +4939,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>15</v>
       </c>
@@ -4371,7 +4972,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>16</v>
       </c>
@@ -4404,7 +5005,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>17</v>
       </c>
@@ -4437,7 +5038,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>18</v>
       </c>
@@ -4470,7 +5071,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>19</v>
       </c>
@@ -4503,7 +5104,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>20</v>
       </c>
@@ -4553,23 +5154,23 @@
       <selection activeCell="D18" sqref="D18:G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="4" max="7" width="16.69921875" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="102" t="s">
+    <row r="2" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="94"/>
-    </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="63"/>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D4" s="58" t="s">
         <v>27</v>
       </c>
@@ -4582,194 +5183,194 @@
       <c r="G4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="95"/>
-    </row>
-    <row r="5" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="99">
+      <c r="H4" s="64"/>
+    </row>
+    <row r="5" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="68">
         <v>0.8</v>
       </c>
-      <c r="E5" s="100">
+      <c r="E5" s="69">
         <v>1.6</v>
       </c>
-      <c r="F5" s="100">
+      <c r="F5" s="69">
         <v>8</v>
       </c>
-      <c r="G5" s="101">
+      <c r="G5" s="70">
         <f>(E5-D5)/F5</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="61" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="79" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="108">
+      <c r="E7" s="77">
         <f>D5+$G$5</f>
         <v>0.9</v>
       </c>
-      <c r="F7" s="98">
+      <c r="F7" s="67">
         <f>D5+G5/2</f>
         <v>0.85000000000000009</v>
       </c>
-      <c r="G7" s="107">
+      <c r="G7" s="76">
         <f>$G$5*(LOG10(F7^2+1)/F7)</f>
         <v>2.7783438891725111E-2</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E8" s="77">
         <f>E7+$G$5</f>
         <v>1</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="67">
         <f>E7+$G$5/2</f>
         <v>0.95000000000000007</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="76">
         <f>$G$5*(LOG10(F8^2+1)/F8)</f>
         <v>2.9402596362380046E-2</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="108">
+      <c r="E9" s="77">
         <f t="shared" ref="E9:E14" si="0">E8+$G$5</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F9" s="98">
+      <c r="F9" s="67">
         <f t="shared" ref="F9:F14" si="1">E8+$G$5/2</f>
         <v>1.05</v>
       </c>
-      <c r="G9" s="107">
+      <c r="G9" s="76">
         <f t="shared" ref="G9:G14" si="2">$G$5*(LOG10(F9^2+1)/F9)</f>
         <v>3.0736762330471408E-2</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="108">
+      <c r="E10" s="77">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="67">
         <f t="shared" si="1"/>
         <v>1.1500000000000001</v>
       </c>
-      <c r="G10" s="107">
+      <c r="G10" s="76">
         <f t="shared" si="2"/>
         <v>3.182223675353734E-2</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="108">
+      <c r="E11" s="77">
         <f t="shared" si="0"/>
         <v>1.3000000000000003</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="67">
         <f t="shared" si="1"/>
         <v>1.2500000000000002</v>
       </c>
-      <c r="G11" s="107">
+      <c r="G11" s="76">
         <f t="shared" si="2"/>
         <v>3.2693109925104859E-2</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D12" s="4">
         <v>6</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E12" s="77">
         <f t="shared" si="0"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="67">
         <f t="shared" si="1"/>
         <v>1.3500000000000003</v>
       </c>
-      <c r="G12" s="107">
+      <c r="G12" s="76">
         <f t="shared" si="2"/>
         <v>3.3380292636815218E-2</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D13" s="4">
         <v>7</v>
       </c>
-      <c r="E13" s="108">
+      <c r="E13" s="77">
         <f t="shared" si="0"/>
         <v>1.5000000000000004</v>
       </c>
-      <c r="F13" s="98">
+      <c r="F13" s="67">
         <f t="shared" si="1"/>
         <v>1.4500000000000004</v>
       </c>
-      <c r="G13" s="107">
+      <c r="G13" s="76">
         <f t="shared" si="2"/>
         <v>3.3911157942811548E-2</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D14" s="4">
         <v>8</v>
       </c>
-      <c r="E14" s="108">
+      <c r="E14" s="77">
         <f t="shared" si="0"/>
         <v>1.6000000000000005</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="67">
         <f t="shared" si="1"/>
         <v>1.5500000000000005</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G14" s="76">
         <f t="shared" si="2"/>
         <v>3.4309557024217577E-2</v>
       </c>
     </row>
-    <row r="15" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="5"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105" t="s">
+      <c r="E15" s="74"/>
+      <c r="F15" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="106">
+      <c r="G15" s="75">
         <f>SUM(G7:G14)</f>
         <v>0.25403915186706311</v>
       </c>
     </row>
-    <row r="17" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="102" t="s">
+    <row r="17" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="104"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="116"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D19" s="58" t="s">
         <v>27</v>
       </c>
@@ -4783,382 +5384,382 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="99">
+    <row r="20" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="68">
         <v>0.8</v>
       </c>
-      <c r="E20" s="100">
+      <c r="E20" s="69">
         <v>1.6</v>
       </c>
-      <c r="F20" s="100">
+      <c r="F20" s="69">
         <v>20</v>
       </c>
-      <c r="G20" s="101">
+      <c r="G20" s="70">
         <f>(E20-D20)/F20</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="61" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="109" t="s">
+      <c r="F21" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="110" t="s">
+      <c r="G21" s="79" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="108">
+      <c r="E22" s="77">
         <f>$D$20+$G$20</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="F22" s="98">
+      <c r="F22" s="67">
         <f>$D$20+$G$20/2</f>
         <v>0.82000000000000006</v>
       </c>
-      <c r="G22" s="107">
+      <c r="G22" s="76">
         <f>$G$20*(LOG10(F22^2+1)/F22)</f>
         <v>1.0894641896506201E-2</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D23" s="4">
         <v>2</v>
       </c>
-      <c r="E23" s="108">
+      <c r="E23" s="77">
         <f>E22+$G$20</f>
         <v>0.88000000000000012</v>
       </c>
-      <c r="F23" s="98">
+      <c r="F23" s="67">
         <f>E22+$G$20/2</f>
         <v>0.8600000000000001</v>
       </c>
-      <c r="G23" s="107">
+      <c r="G23" s="76">
         <f t="shared" ref="G23:G41" si="3">$G$20*(LOG10(F23^2+1)/F23)</f>
         <v>1.1183692976432484E-2</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D24" s="4">
         <v>3</v>
       </c>
-      <c r="E24" s="108">
+      <c r="E24" s="77">
         <f t="shared" ref="E24:E41" si="4">E23+$G$20</f>
         <v>0.92000000000000015</v>
       </c>
-      <c r="F24" s="98">
+      <c r="F24" s="67">
         <f t="shared" ref="F24:F41" si="5">E23+$G$20/2</f>
         <v>0.90000000000000013</v>
       </c>
-      <c r="G24" s="107">
+      <c r="G24" s="76">
         <f t="shared" si="3"/>
         <v>1.145238110529709E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D25" s="4">
         <v>4</v>
       </c>
-      <c r="E25" s="108">
+      <c r="E25" s="77">
         <f t="shared" si="4"/>
         <v>0.96000000000000019</v>
       </c>
-      <c r="F25" s="98">
+      <c r="F25" s="67">
         <f t="shared" si="5"/>
         <v>0.94000000000000017</v>
       </c>
-      <c r="G25" s="107">
+      <c r="G25" s="76">
         <f t="shared" si="3"/>
         <v>1.1701646032795103E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D26" s="4">
         <v>5</v>
       </c>
-      <c r="E26" s="108">
+      <c r="E26" s="77">
         <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="F26" s="98">
+      <c r="F26" s="67">
         <f t="shared" si="5"/>
         <v>0.9800000000000002</v>
       </c>
-      <c r="G26" s="107">
+      <c r="G26" s="76">
         <f t="shared" si="3"/>
         <v>1.193243648328947E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D27" s="4">
         <v>6</v>
       </c>
-      <c r="E27" s="108">
+      <c r="E27" s="77">
         <f t="shared" si="4"/>
         <v>1.0400000000000003</v>
       </c>
-      <c r="F27" s="98">
+      <c r="F27" s="67">
         <f t="shared" si="5"/>
         <v>1.0200000000000002</v>
       </c>
-      <c r="G27" s="107">
+      <c r="G27" s="76">
         <f t="shared" si="3"/>
         <v>1.2145698621927423E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D28" s="4">
         <v>7</v>
       </c>
-      <c r="E28" s="108">
+      <c r="E28" s="77">
         <f t="shared" si="4"/>
         <v>1.0800000000000003</v>
       </c>
-      <c r="F28" s="98">
+      <c r="F28" s="67">
         <f t="shared" si="5"/>
         <v>1.0600000000000003</v>
       </c>
-      <c r="G28" s="107">
+      <c r="G28" s="76">
         <f t="shared" si="3"/>
         <v>1.2342366666759221E-2</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <v>8</v>
       </c>
-      <c r="E29" s="108">
+      <c r="E29" s="77">
         <f t="shared" si="4"/>
         <v>1.1200000000000003</v>
       </c>
-      <c r="F29" s="98">
+      <c r="F29" s="67">
         <f t="shared" si="5"/>
         <v>1.1000000000000003</v>
       </c>
-      <c r="G29" s="107">
+      <c r="G29" s="76">
         <f t="shared" si="3"/>
         <v>1.2523355406731301E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
         <v>9</v>
       </c>
-      <c r="E30" s="108">
+      <c r="E30" s="77">
         <f t="shared" si="4"/>
         <v>1.1600000000000004</v>
       </c>
-      <c r="F30" s="98">
+      <c r="F30" s="67">
         <f t="shared" si="5"/>
         <v>1.1400000000000003</v>
       </c>
-      <c r="G30" s="107">
+      <c r="G30" s="76">
         <f t="shared" si="3"/>
         <v>1.2689554385050429E-2</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <v>10</v>
       </c>
-      <c r="E31" s="108">
+      <c r="E31" s="77">
         <f t="shared" si="4"/>
         <v>1.2000000000000004</v>
       </c>
-      <c r="F31" s="98">
+      <c r="F31" s="67">
         <f t="shared" si="5"/>
         <v>1.1800000000000004</v>
       </c>
-      <c r="G31" s="107">
+      <c r="G31" s="76">
         <f t="shared" si="3"/>
         <v>1.2841823516612528E-2</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>11</v>
       </c>
-      <c r="E32" s="108">
+      <c r="E32" s="77">
         <f t="shared" si="4"/>
         <v>1.2400000000000004</v>
       </c>
-      <c r="F32" s="98">
+      <c r="F32" s="67">
         <f t="shared" si="5"/>
         <v>1.2200000000000004</v>
       </c>
-      <c r="G32" s="107">
+      <c r="G32" s="76">
         <f t="shared" si="3"/>
         <v>1.2980989923627282E-2</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
         <v>12</v>
       </c>
-      <c r="E33" s="108">
+      <c r="E33" s="77">
         <f t="shared" si="4"/>
         <v>1.2800000000000005</v>
       </c>
-      <c r="F33" s="98">
+      <c r="F33" s="67">
         <f t="shared" si="5"/>
         <v>1.2600000000000005</v>
       </c>
-      <c r="G33" s="107">
+      <c r="G33" s="76">
         <f t="shared" si="3"/>
         <v>1.3107845792649229E-2</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>13</v>
       </c>
-      <c r="E34" s="108">
+      <c r="E34" s="77">
         <f t="shared" si="4"/>
         <v>1.3200000000000005</v>
       </c>
-      <c r="F34" s="98">
+      <c r="F34" s="67">
         <f t="shared" si="5"/>
         <v>1.3000000000000005</v>
       </c>
-      <c r="G34" s="107">
+      <c r="G34" s="76">
         <f t="shared" si="3"/>
         <v>1.322314707699717E-2</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>14</v>
       </c>
-      <c r="E35" s="108">
+      <c r="E35" s="77">
         <f t="shared" si="4"/>
         <v>1.3600000000000005</v>
       </c>
-      <c r="F35" s="98">
+      <c r="F35" s="67">
         <f t="shared" si="5"/>
         <v>1.3400000000000005</v>
       </c>
-      <c r="G35" s="107">
+      <c r="G35" s="76">
         <f t="shared" si="3"/>
         <v>1.3327612889605578E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <v>15</v>
       </c>
-      <c r="E36" s="108">
+      <c r="E36" s="77">
         <f t="shared" si="4"/>
         <v>1.4000000000000006</v>
       </c>
-      <c r="F36" s="98">
+      <c r="F36" s="67">
         <f t="shared" si="5"/>
         <v>1.3800000000000006</v>
       </c>
-      <c r="G36" s="107">
+      <c r="G36" s="76">
         <f t="shared" si="3"/>
         <v>1.3421925451743717E-2</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>16</v>
       </c>
-      <c r="E37" s="108">
+      <c r="E37" s="77">
         <f t="shared" si="4"/>
         <v>1.4400000000000006</v>
       </c>
-      <c r="F37" s="98">
+      <c r="F37" s="67">
         <f t="shared" si="5"/>
         <v>1.4200000000000006</v>
       </c>
-      <c r="G37" s="107">
+      <c r="G37" s="76">
         <f t="shared" si="3"/>
         <v>1.3506730482145977E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D38" s="4">
         <v>17</v>
       </c>
-      <c r="E38" s="108">
+      <c r="E38" s="77">
         <f t="shared" si="4"/>
         <v>1.4800000000000006</v>
       </c>
-      <c r="F38" s="98">
+      <c r="F38" s="67">
         <f t="shared" si="5"/>
         <v>1.4600000000000006</v>
       </c>
-      <c r="G38" s="107">
+      <c r="G38" s="76">
         <f t="shared" si="3"/>
         <v>1.3582637928566463E-2</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D39" s="4">
         <v>18</v>
       </c>
-      <c r="E39" s="108">
+      <c r="E39" s="77">
         <f t="shared" si="4"/>
         <v>1.5200000000000007</v>
       </c>
-      <c r="F39" s="98">
+      <c r="F39" s="67">
         <f t="shared" si="5"/>
         <v>1.5000000000000007</v>
       </c>
-      <c r="G39" s="107">
+      <c r="G39" s="76">
         <f t="shared" si="3"/>
         <v>1.3650222959436652E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D40" s="4">
         <v>19</v>
       </c>
-      <c r="E40" s="108">
+      <c r="E40" s="77">
         <f t="shared" si="4"/>
         <v>1.5600000000000007</v>
       </c>
-      <c r="F40" s="98">
+      <c r="F40" s="67">
         <f t="shared" si="5"/>
         <v>1.5400000000000007</v>
       </c>
-      <c r="G40" s="107">
+      <c r="G40" s="76">
         <f t="shared" si="3"/>
         <v>1.3710027147135291E-2</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D41" s="4">
         <v>20</v>
       </c>
-      <c r="E41" s="108">
+      <c r="E41" s="77">
         <f t="shared" si="4"/>
         <v>1.6000000000000008</v>
       </c>
-      <c r="F41" s="98">
+      <c r="F41" s="67">
         <f t="shared" si="5"/>
         <v>1.5800000000000007</v>
       </c>
-      <c r="G41" s="107">
+      <c r="G41" s="76">
         <f t="shared" si="3"/>
         <v>1.3762559786431221E-2</v>
       </c>
     </row>
-    <row r="42" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D42" s="5"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105" t="s">
+      <c r="E42" s="74"/>
+      <c r="F42" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="106">
+      <c r="G42" s="75">
         <f>SUM(G22:G41)</f>
         <v>0.25398129652973983</v>
       </c>
@@ -5178,36 +5779,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51559526-6A96-4AF8-9018-62B822743CE4}">
   <dimension ref="D2:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="16.69921875" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" customWidth="1"/>
+    <col min="11" max="11" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="102" t="s">
+    <row r="2" spans="4:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="4:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="94"/>
-      <c r="K3" s="102" t="s">
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="63"/>
+      <c r="K3" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="104"/>
-    </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="116"/>
+    </row>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D4" s="58" t="s">
         <v>27</v>
       </c>
@@ -5220,7 +5821,7 @@
       <c r="G4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="95"/>
+      <c r="H4" s="64"/>
       <c r="K4" s="58" t="s">
         <v>27</v>
       </c>
@@ -5234,296 +5835,296 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="99">
+    <row r="5" spans="4:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="68">
         <v>0.8</v>
       </c>
-      <c r="E5" s="100">
+      <c r="E5" s="69">
         <v>1.6</v>
       </c>
-      <c r="F5" s="100">
+      <c r="F5" s="69">
         <v>8</v>
       </c>
-      <c r="G5" s="101">
+      <c r="G5" s="70">
         <f>(E5-D5)/F5</f>
         <v>0.1</v>
       </c>
-      <c r="K5" s="99">
+      <c r="K5" s="68">
         <v>0</v>
       </c>
-      <c r="L5" s="100">
+      <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="M5" s="100">
+      <c r="M5" s="69">
         <v>5</v>
       </c>
-      <c r="N5" s="101">
+      <c r="N5" s="70">
         <f>(L5-K5)/M5</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="61" t="s">
+    <row r="6" spans="4:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="K6" s="61" t="s">
+      <c r="G6" s="73"/>
+      <c r="K6" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="62" t="s">
+      <c r="M6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="63"/>
-    </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="111">
+      <c r="N6" s="73"/>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D7" s="58">
         <v>0</v>
       </c>
-      <c r="E7" s="114">
+      <c r="E7" s="80">
         <f>D5</f>
         <v>0.8</v>
       </c>
-      <c r="F7" s="112">
+      <c r="F7" s="81">
         <f>LOG10(E7^2+1)/E7</f>
         <v>0.26855481005962234</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="K7" s="111">
+      <c r="G7" s="82"/>
+      <c r="K7" s="58">
         <v>0</v>
       </c>
-      <c r="L7" s="114">
+      <c r="L7" s="80">
         <f>K5</f>
         <v>0</v>
       </c>
-      <c r="M7" s="112">
+      <c r="M7" s="81">
         <f>1/(L7^2+1)</f>
         <v>1</v>
       </c>
-      <c r="N7" s="113"/>
-    </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="8">
+      <c r="N7" s="82"/>
+    </row>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E8" s="66">
         <f>E7+$G$5</f>
         <v>0.9</v>
       </c>
-      <c r="F8" s="112">
+      <c r="F8" s="65">
         <f t="shared" ref="F8:F15" si="0">LOG10(E8^2+1)/E8</f>
         <v>0.28630952763242723</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="K8" s="8">
+      <c r="G8" s="3"/>
+      <c r="K8" s="4">
         <v>1</v>
       </c>
-      <c r="L8" s="108">
+      <c r="L8" s="66">
         <f>L7+$N$5</f>
         <v>0.2</v>
       </c>
-      <c r="M8" s="112">
+      <c r="M8" s="65">
         <f>1/(L8^2+1)</f>
         <v>0.96153846153846145</v>
       </c>
-      <c r="N8" s="107"/>
-    </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="108">
+      <c r="E9" s="66">
         <f t="shared" ref="E9:E15" si="1">E8+$G$5</f>
         <v>1</v>
       </c>
-      <c r="F9" s="112">
+      <c r="F9" s="65">
         <f t="shared" si="0"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="G9" s="107"/>
+      <c r="G9" s="3"/>
       <c r="K9" s="4">
         <v>2</v>
       </c>
-      <c r="L9" s="108">
+      <c r="L9" s="66">
         <f t="shared" ref="L9:L11" si="2">L8+$N$5</f>
         <v>0.4</v>
       </c>
-      <c r="M9" s="112">
+      <c r="M9" s="65">
         <f t="shared" ref="M9:M12" si="3">1/(L9^2+1)</f>
         <v>0.86206896551724133</v>
       </c>
-      <c r="N9" s="107"/>
-    </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="108">
+      <c r="E10" s="66">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F10" s="112">
+      <c r="F10" s="65">
         <f t="shared" si="0"/>
         <v>0.31308388516828245</v>
       </c>
-      <c r="G10" s="107"/>
+      <c r="G10" s="3"/>
       <c r="K10" s="4">
         <v>3</v>
       </c>
-      <c r="L10" s="108">
+      <c r="L10" s="66">
         <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="M10" s="112">
+      <c r="M10" s="65">
         <f t="shared" si="3"/>
         <v>0.73529411764705876</v>
       </c>
-      <c r="N10" s="107"/>
-    </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D11" s="4">
         <v>4</v>
       </c>
-      <c r="E11" s="108">
+      <c r="E11" s="66">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="F11" s="112">
+      <c r="F11" s="65">
         <f t="shared" si="0"/>
         <v>0.3228248552822745</v>
       </c>
-      <c r="G11" s="107"/>
+      <c r="G11" s="3"/>
       <c r="K11" s="4">
         <v>4</v>
       </c>
-      <c r="L11" s="108">
+      <c r="L11" s="66">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="M11" s="112">
+      <c r="M11" s="65">
         <f t="shared" si="3"/>
         <v>0.6097560975609756</v>
       </c>
-      <c r="N11" s="107"/>
-    </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E12" s="66">
         <f t="shared" si="1"/>
         <v>1.3000000000000003</v>
       </c>
-      <c r="F12" s="112">
+      <c r="F12" s="65">
         <f t="shared" si="0"/>
         <v>0.3305786769249292</v>
       </c>
-      <c r="G12" s="107"/>
+      <c r="G12" s="3"/>
       <c r="K12" s="4">
         <v>5</v>
       </c>
-      <c r="L12" s="108">
+      <c r="L12" s="66">
         <f>L11+$N$5</f>
         <v>1</v>
       </c>
-      <c r="M12" s="112">
+      <c r="M12" s="65">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="N12" s="107"/>
-    </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D13" s="4">
         <v>6</v>
       </c>
-      <c r="E13" s="108">
+      <c r="E13" s="66">
         <f t="shared" si="1"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="F13" s="112">
+      <c r="F13" s="65">
         <f t="shared" si="0"/>
         <v>0.33663693647067039</v>
       </c>
-      <c r="G13" s="107"/>
+      <c r="G13" s="3"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="107"/>
-    </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="L13" s="66"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D14" s="4">
         <v>7</v>
       </c>
-      <c r="E14" s="108">
+      <c r="E14" s="66">
         <f t="shared" si="1"/>
         <v>1.5000000000000004</v>
       </c>
-      <c r="F14" s="112">
+      <c r="F14" s="65">
         <f t="shared" si="0"/>
         <v>0.34125557398591627</v>
       </c>
-      <c r="G14" s="107"/>
+      <c r="G14" s="3"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="107"/>
-    </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="L14" s="66"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D15" s="4">
         <v>8</v>
       </c>
-      <c r="E15" s="108">
+      <c r="E15" s="66">
         <f t="shared" si="1"/>
         <v>1.6000000000000005</v>
       </c>
-      <c r="F15" s="112">
+      <c r="F15" s="65">
         <f t="shared" si="0"/>
         <v>0.34465624873304701</v>
       </c>
-      <c r="G15" s="107"/>
+      <c r="G15" s="3"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="107"/>
-    </row>
-    <row r="16" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="66"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="4:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="5"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105" t="s">
+      <c r="E16" s="74"/>
+      <c r="F16" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="106">
+      <c r="G16" s="75">
         <f>G5*((F7+F15)/2+SUM(F8:F14))</f>
         <v>0.25383249805248165</v>
       </c>
       <c r="K16" s="5"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105" t="s">
+      <c r="L16" s="74"/>
+      <c r="M16" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="106">
+      <c r="N16" s="75">
         <f>N5*((M7+M12)/2+SUM(M8:M11))</f>
         <v>0.78373152845274752</v>
       </c>
     </row>
-    <row r="18" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="102" t="s">
+    <row r="18" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="104"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="116"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D20" s="58" t="s">
         <v>27</v>
       </c>
@@ -5537,334 +6138,334 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="99">
+    <row r="21" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="68">
         <v>0.8</v>
       </c>
-      <c r="E21" s="100">
+      <c r="E21" s="69">
         <v>1.6</v>
       </c>
-      <c r="F21" s="100">
+      <c r="F21" s="69">
         <v>20</v>
       </c>
-      <c r="G21" s="101">
+      <c r="G21" s="70">
         <f>(E21-D21)/F21</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="115" t="s">
+    <row r="22" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="116" t="s">
+      <c r="F22" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="117"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="73"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D23" s="58">
         <v>0</v>
       </c>
-      <c r="E23" s="118">
+      <c r="E23" s="80">
         <f>D21</f>
         <v>0.8</v>
       </c>
-      <c r="F23" s="119">
+      <c r="F23" s="81">
         <f>LOG10(E23^2+1)/E23</f>
         <v>0.26855481005962234</v>
       </c>
-      <c r="G23" s="120"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="82"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="97">
+      <c r="E24" s="66">
         <f>E23+$G$21</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="F24" s="96">
-        <f t="shared" ref="F24:F44" si="4">LOG10(E24^2+1)/E24</f>
+      <c r="F24" s="65">
+        <f t="shared" ref="F24:F43" si="4">LOG10(E24^2+1)/E24</f>
         <v>0.2760442706505693</v>
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D25" s="4">
         <v>2</v>
       </c>
-      <c r="E25" s="97">
+      <c r="E25" s="66">
         <f t="shared" ref="E25:E43" si="5">E24+$G$21</f>
         <v>0.88000000000000012</v>
       </c>
-      <c r="F25" s="96">
+      <c r="F25" s="65">
         <f t="shared" si="4"/>
         <v>0.28301310091486914</v>
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D26" s="4">
         <v>3</v>
       </c>
-      <c r="E26" s="97">
+      <c r="E26" s="66">
         <f t="shared" si="5"/>
         <v>0.92000000000000015</v>
       </c>
-      <c r="F26" s="96">
+      <c r="F26" s="65">
         <f t="shared" si="4"/>
         <v>0.2894845559517798</v>
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D27" s="4">
         <v>4</v>
       </c>
-      <c r="E27" s="97">
+      <c r="E27" s="66">
         <f t="shared" si="5"/>
         <v>0.96000000000000019</v>
       </c>
-      <c r="F27" s="96">
+      <c r="F27" s="65">
         <f t="shared" si="4"/>
         <v>0.29548228131128212</v>
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D28" s="4">
         <v>5</v>
       </c>
-      <c r="E28" s="97">
+      <c r="E28" s="66">
         <f t="shared" si="5"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="F28" s="96">
+      <c r="F28" s="65">
         <f t="shared" si="4"/>
         <v>0.30102999566398125</v>
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <v>6</v>
       </c>
-      <c r="E29" s="97">
+      <c r="E29" s="66">
         <f t="shared" si="5"/>
         <v>1.0400000000000003</v>
       </c>
-      <c r="F29" s="96">
+      <c r="F29" s="65">
         <f t="shared" si="4"/>
         <v>0.30615123001683764</v>
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
         <v>7</v>
       </c>
-      <c r="E30" s="97">
+      <c r="E30" s="66">
         <f t="shared" si="5"/>
         <v>1.0800000000000003</v>
       </c>
-      <c r="F30" s="96">
+      <c r="F30" s="65">
         <f t="shared" si="4"/>
         <v>0.31086911759726876</v>
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <v>8</v>
       </c>
-      <c r="E31" s="97">
+      <c r="E31" s="66">
         <f t="shared" si="5"/>
         <v>1.1200000000000003</v>
       </c>
-      <c r="F31" s="96">
+      <c r="F31" s="65">
         <f t="shared" si="4"/>
         <v>0.31520622836185824</v>
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>9</v>
       </c>
-      <c r="E32" s="97">
+      <c r="E32" s="66">
         <f t="shared" si="5"/>
         <v>1.1600000000000004</v>
       </c>
-      <c r="F32" s="96">
+      <c r="F32" s="65">
         <f t="shared" si="4"/>
         <v>0.31918444220778791</v>
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
         <v>10</v>
       </c>
-      <c r="E33" s="97">
+      <c r="E33" s="66">
         <f t="shared" si="5"/>
         <v>1.2000000000000004</v>
       </c>
-      <c r="F33" s="96">
+      <c r="F33" s="65">
         <f t="shared" si="4"/>
         <v>0.32282485528227461</v>
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>11</v>
       </c>
-      <c r="E34" s="97">
+      <c r="E34" s="66">
         <f t="shared" si="5"/>
         <v>1.2400000000000004</v>
       </c>
-      <c r="F34" s="96">
+      <c r="F34" s="65">
         <f t="shared" si="4"/>
         <v>0.32614771422379824</v>
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>12</v>
       </c>
-      <c r="E35" s="97">
+      <c r="E35" s="66">
         <f t="shared" si="5"/>
         <v>1.2800000000000005</v>
       </c>
-      <c r="F35" s="96">
+      <c r="F35" s="65">
         <f t="shared" si="4"/>
         <v>0.32917237367222157</v>
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <v>13</v>
       </c>
-      <c r="E36" s="97">
+      <c r="E36" s="66">
         <f t="shared" si="5"/>
         <v>1.3200000000000005</v>
       </c>
-      <c r="F36" s="96">
+      <c r="F36" s="65">
         <f t="shared" si="4"/>
         <v>0.33191727291144257</v>
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>14</v>
       </c>
-      <c r="E37" s="97">
+      <c r="E37" s="66">
         <f t="shared" si="5"/>
         <v>1.3600000000000005</v>
       </c>
-      <c r="F37" s="96">
+      <c r="F37" s="65">
         <f t="shared" si="4"/>
         <v>0.33439992802880025</v>
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D38" s="4">
         <v>15</v>
       </c>
-      <c r="E38" s="97">
+      <c r="E38" s="66">
         <f t="shared" si="5"/>
         <v>1.4000000000000006</v>
       </c>
-      <c r="F38" s="96">
+      <c r="F38" s="65">
         <f t="shared" si="4"/>
         <v>0.33663693647067044</v>
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D39" s="4">
         <v>16</v>
       </c>
-      <c r="E39" s="97">
+      <c r="E39" s="66">
         <f t="shared" si="5"/>
         <v>1.4400000000000006</v>
       </c>
-      <c r="F39" s="96">
+      <c r="F39" s="65">
         <f t="shared" si="4"/>
         <v>0.33864399133167949</v>
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D40" s="4">
         <v>17</v>
       </c>
-      <c r="E40" s="97">
+      <c r="E40" s="66">
         <f t="shared" si="5"/>
         <v>1.4800000000000006</v>
       </c>
-      <c r="F40" s="96">
+      <c r="F40" s="65">
         <f t="shared" si="4"/>
         <v>0.34043590312943361</v>
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D41" s="4">
         <v>18</v>
       </c>
-      <c r="E41" s="97">
+      <c r="E41" s="66">
         <f t="shared" si="5"/>
         <v>1.5200000000000007</v>
       </c>
-      <c r="F41" s="96">
+      <c r="F41" s="65">
         <f t="shared" si="4"/>
         <v>0.34202662718530225</v>
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D42" s="4">
         <v>19</v>
       </c>
-      <c r="E42" s="97">
+      <c r="E42" s="66">
         <f t="shared" si="5"/>
         <v>1.5600000000000007</v>
       </c>
-      <c r="F42" s="96">
+      <c r="F42" s="65">
         <f t="shared" si="4"/>
         <v>0.34342929505503661</v>
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D43" s="4">
         <v>20</v>
       </c>
-      <c r="E43" s="97">
+      <c r="E43" s="66">
         <f t="shared" si="5"/>
         <v>1.6000000000000008</v>
       </c>
-      <c r="F43" s="96">
+      <c r="F43" s="65">
         <f t="shared" si="4"/>
         <v>0.34465624873304695</v>
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D44" s="5"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="121" t="s">
+      <c r="E44" s="69"/>
+      <c r="F44" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G44" s="106">
+      <c r="G44" s="75">
         <f>G21*((F23+F43)/2+SUM(F24:F42))</f>
         <v>0.25394822597452915</v>
       </c>

--- a/reports/Solutions.xlsx
+++ b/reports/Solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Al-Kh\PyCharmProjects\Comp_Math\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8287594-79CF-4D6C-A83A-0F8BF7DB93E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079D1FDC-62A5-450E-A950-E57B473C6115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="17923" windowHeight="12905" firstSheet="8" activeTab="9" xr2:uid="{4DD3A309-C25B-4EE0-85DE-85C6E8C93D45}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
   <si>
     <t>Шаговый метод</t>
   </si>
@@ -2387,7 +2387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813F104F-B533-45EA-B96B-79D46D66AC3D}">
   <dimension ref="D2:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -3666,7 +3666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE1DD9A-7F61-479B-81D6-EEDBE609EF94}">
   <dimension ref="B4:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -5150,7 +5150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBA286C-4F68-42A3-9DE7-519B23D0087E}">
   <dimension ref="D2:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18:G42"/>
     </sheetView>
   </sheetViews>
@@ -5777,23 +5777,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51559526-6A96-4AF8-9018-62B822743CE4}">
-  <dimension ref="D2:N44"/>
+  <dimension ref="D2:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="7" width="16.69921875" customWidth="1"/>
     <col min="8" max="8" width="15.69921875" customWidth="1"/>
-    <col min="11" max="11" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="114" t="s">
         <v>34</v>
       </c>
@@ -5801,14 +5798,8 @@
       <c r="F3" s="115"/>
       <c r="G3" s="116"/>
       <c r="H3" s="63"/>
-      <c r="K3" s="114" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-    </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D4" s="58" t="s">
         <v>27</v>
       </c>
@@ -5822,20 +5813,8 @@
         <v>30</v>
       </c>
       <c r="H4" s="64"/>
-      <c r="K4" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="4:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="68">
         <v>0.8</v>
       </c>
@@ -5849,21 +5828,8 @@
         <f>(E5-D5)/F5</f>
         <v>0.1</v>
       </c>
-      <c r="K5" s="68">
-        <v>0</v>
-      </c>
-      <c r="L5" s="69">
-        <v>1</v>
-      </c>
-      <c r="M5" s="69">
-        <v>5</v>
-      </c>
-      <c r="N5" s="70">
-        <f>(L5-K5)/M5</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="4:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="71" t="s">
         <v>22</v>
       </c>
@@ -5874,18 +5840,8 @@
         <v>35</v>
       </c>
       <c r="G6" s="73"/>
-      <c r="K6" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="73"/>
-    </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D7" s="58">
         <v>0</v>
       </c>
@@ -5898,20 +5854,8 @@
         <v>0.26855481005962234</v>
       </c>
       <c r="G7" s="82"/>
-      <c r="K7" s="58">
-        <v>0</v>
-      </c>
-      <c r="L7" s="80">
-        <f>K5</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="81">
-        <f>1/(L7^2+1)</f>
-        <v>1</v>
-      </c>
-      <c r="N7" s="82"/>
-    </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D8" s="4">
         <v>1</v>
       </c>
@@ -5924,20 +5868,8 @@
         <v>0.28630952763242723</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-      <c r="L8" s="66">
-        <f>L7+$N$5</f>
-        <v>0.2</v>
-      </c>
-      <c r="M8" s="65">
-        <f>1/(L8^2+1)</f>
-        <v>0.96153846153846145</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D9" s="4">
         <v>2</v>
       </c>
@@ -5950,20 +5882,8 @@
         <v>0.3010299956639812</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="K9" s="4">
-        <v>2</v>
-      </c>
-      <c r="L9" s="66">
-        <f t="shared" ref="L9:L11" si="2">L8+$N$5</f>
-        <v>0.4</v>
-      </c>
-      <c r="M9" s="65">
-        <f t="shared" ref="M9:M12" si="3">1/(L9^2+1)</f>
-        <v>0.86206896551724133</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D10" s="4">
         <v>3</v>
       </c>
@@ -5976,20 +5896,8 @@
         <v>0.31308388516828245</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="K10" s="4">
-        <v>3</v>
-      </c>
-      <c r="L10" s="66">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="M10" s="65">
-        <f t="shared" si="3"/>
-        <v>0.73529411764705876</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D11" s="4">
         <v>4</v>
       </c>
@@ -6002,20 +5910,8 @@
         <v>0.3228248552822745</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="K11" s="4">
-        <v>4</v>
-      </c>
-      <c r="L11" s="66">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="M11" s="65">
-        <f t="shared" si="3"/>
-        <v>0.6097560975609756</v>
-      </c>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D12" s="4">
         <v>5</v>
       </c>
@@ -6028,20 +5924,8 @@
         <v>0.3305786769249292</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="K12" s="4">
-        <v>5</v>
-      </c>
-      <c r="L12" s="66">
-        <f>L11+$N$5</f>
-        <v>1</v>
-      </c>
-      <c r="M12" s="65">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D13" s="4">
         <v>6</v>
       </c>
@@ -6054,12 +5938,8 @@
         <v>0.33663693647067039</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D14" s="4">
         <v>7</v>
       </c>
@@ -6072,12 +5952,8 @@
         <v>0.34125557398591627</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D15" s="4">
         <v>8</v>
       </c>
@@ -6090,12 +5966,8 @@
         <v>0.34465624873304701</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="4:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="5"/>
       <c r="E16" s="74"/>
       <c r="F16" s="74" t="s">
@@ -6105,15 +5977,6 @@
         <f>G5*((F7+F15)/2+SUM(F8:F14))</f>
         <v>0.25383249805248165</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="75">
-        <f>N5*((M7+M12)/2+SUM(M8:M11))</f>
-        <v>0.78373152845274752</v>
-      </c>
     </row>
     <row r="18" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
@@ -6188,7 +6051,7 @@
         <v>0.84000000000000008</v>
       </c>
       <c r="F24" s="65">
-        <f t="shared" ref="F24:F43" si="4">LOG10(E24^2+1)/E24</f>
+        <f t="shared" ref="F24:F43" si="2">LOG10(E24^2+1)/E24</f>
         <v>0.2760442706505693</v>
       </c>
       <c r="G24" s="3"/>
@@ -6198,11 +6061,11 @@
         <v>2</v>
       </c>
       <c r="E25" s="66">
-        <f t="shared" ref="E25:E43" si="5">E24+$G$21</f>
+        <f t="shared" ref="E25:E43" si="3">E24+$G$21</f>
         <v>0.88000000000000012</v>
       </c>
       <c r="F25" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.28301310091486914</v>
       </c>
       <c r="G25" s="3"/>
@@ -6212,11 +6075,11 @@
         <v>3</v>
       </c>
       <c r="E26" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.92000000000000015</v>
       </c>
       <c r="F26" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.2894845559517798</v>
       </c>
       <c r="G26" s="3"/>
@@ -6226,11 +6089,11 @@
         <v>4</v>
       </c>
       <c r="E27" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.96000000000000019</v>
       </c>
       <c r="F27" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.29548228131128212</v>
       </c>
       <c r="G27" s="3"/>
@@ -6240,11 +6103,11 @@
         <v>5</v>
       </c>
       <c r="E28" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="F28" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.30102999566398125</v>
       </c>
       <c r="G28" s="3"/>
@@ -6254,11 +6117,11 @@
         <v>6</v>
       </c>
       <c r="E29" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.0400000000000003</v>
       </c>
       <c r="F29" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.30615123001683764</v>
       </c>
       <c r="G29" s="3"/>
@@ -6268,11 +6131,11 @@
         <v>7</v>
       </c>
       <c r="E30" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.0800000000000003</v>
       </c>
       <c r="F30" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.31086911759726876</v>
       </c>
       <c r="G30" s="3"/>
@@ -6282,11 +6145,11 @@
         <v>8</v>
       </c>
       <c r="E31" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.1200000000000003</v>
       </c>
       <c r="F31" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.31520622836185824</v>
       </c>
       <c r="G31" s="3"/>
@@ -6296,11 +6159,11 @@
         <v>9</v>
       </c>
       <c r="E32" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.1600000000000004</v>
       </c>
       <c r="F32" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.31918444220778791</v>
       </c>
       <c r="G32" s="3"/>
@@ -6310,11 +6173,11 @@
         <v>10</v>
       </c>
       <c r="E33" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.2000000000000004</v>
       </c>
       <c r="F33" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.32282485528227461</v>
       </c>
       <c r="G33" s="3"/>
@@ -6324,11 +6187,11 @@
         <v>11</v>
       </c>
       <c r="E34" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.2400000000000004</v>
       </c>
       <c r="F34" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.32614771422379824</v>
       </c>
       <c r="G34" s="3"/>
@@ -6338,11 +6201,11 @@
         <v>12</v>
       </c>
       <c r="E35" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.2800000000000005</v>
       </c>
       <c r="F35" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.32917237367222157</v>
       </c>
       <c r="G35" s="3"/>
@@ -6352,11 +6215,11 @@
         <v>13</v>
       </c>
       <c r="E36" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.3200000000000005</v>
       </c>
       <c r="F36" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.33191727291144257</v>
       </c>
       <c r="G36" s="3"/>
@@ -6366,11 +6229,11 @@
         <v>14</v>
       </c>
       <c r="E37" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.3600000000000005</v>
       </c>
       <c r="F37" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.33439992802880025</v>
       </c>
       <c r="G37" s="3"/>
@@ -6380,11 +6243,11 @@
         <v>15</v>
       </c>
       <c r="E38" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.4000000000000006</v>
       </c>
       <c r="F38" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.33663693647067044</v>
       </c>
       <c r="G38" s="3"/>
@@ -6394,11 +6257,11 @@
         <v>16</v>
       </c>
       <c r="E39" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.4400000000000006</v>
       </c>
       <c r="F39" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.33864399133167949</v>
       </c>
       <c r="G39" s="3"/>
@@ -6408,11 +6271,11 @@
         <v>17</v>
       </c>
       <c r="E40" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.4800000000000006</v>
       </c>
       <c r="F40" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.34043590312943361</v>
       </c>
       <c r="G40" s="3"/>
@@ -6422,11 +6285,11 @@
         <v>18</v>
       </c>
       <c r="E41" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.5200000000000007</v>
       </c>
       <c r="F41" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.34202662718530225</v>
       </c>
       <c r="G41" s="3"/>
@@ -6436,11 +6299,11 @@
         <v>19</v>
       </c>
       <c r="E42" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.5600000000000007</v>
       </c>
       <c r="F42" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.34342929505503661</v>
       </c>
       <c r="G42" s="3"/>
@@ -6450,11 +6313,11 @@
         <v>20</v>
       </c>
       <c r="E43" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.6000000000000008</v>
       </c>
       <c r="F43" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.34465624873304695</v>
       </c>
       <c r="G43" s="3"/>
@@ -6471,10 +6334,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D19:G19"/>
-    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/reports/Solutions.xlsx
+++ b/reports/Solutions.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Al-Kh\PyCharmProjects\Comp_Math\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Comp_Math\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079D1FDC-62A5-450E-A950-E57B473C6115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45105847-1FC9-43E3-9FD4-70C0C889980F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="17923" windowHeight="12905" firstSheet="8" activeTab="9" xr2:uid="{4DD3A309-C25B-4EE0-85DE-85C6E8C93D45}"/>
+    <workbookView xWindow="-19320" yWindow="1185" windowWidth="19440" windowHeight="14040" firstSheet="9" activeTab="10" xr2:uid="{4DD3A309-C25B-4EE0-85DE-85C6E8C93D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab1.шаговый" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="Lab2_метод_Зейделя" sheetId="7" r:id="rId7"/>
     <sheet name="Lab4_метод центральных" sheetId="8" r:id="rId8"/>
     <sheet name="Lab4_метод_трапеций" sheetId="9" r:id="rId9"/>
-    <sheet name="Lab4_метод_симпсона" sheetId="11" r:id="rId10"/>
+    <sheet name="Lab4_метод_Симпсона" sheetId="11" r:id="rId10"/>
+    <sheet name="Lab3_полином_Лагранжа" sheetId="12" r:id="rId11"/>
+    <sheet name="Lab3_полином_Ньютона" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
   <si>
     <t>Шаговый метод</t>
   </si>
@@ -167,17 +169,463 @@
   <si>
     <t>Вычисление интеграла методом Симпсона</t>
   </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>Значение аргумента</t>
+  </si>
+  <si>
+    <t>Интерполяция полиномом Лагранжа</t>
+  </si>
+  <si>
+    <t>Интерполяция полиномом Ньютона (2 формула)</t>
+  </si>
+  <si>
+    <t>Таблица функции</t>
+  </si>
+  <si>
+    <t>Таблица разностей</t>
+  </si>
+  <si>
+    <r>
+      <t>∆</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>∆y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +658,46 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -231,7 +719,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -712,11 +1200,261 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,6 +1766,183 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2221,26 +3136,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6556DD2-6A81-4E5A-AFAB-F411E82306CA}">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="B2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.296875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="84" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="85"/>
     </row>
-    <row r="4" spans="2:3" ht="28.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2248,7 +3164,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2256,7 +3172,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2264,7 +3180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <f>C4</f>
         <v>0.8</v>
@@ -2274,7 +3190,7 @@
         <v>-0.15999999999999992</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <f>B7+$C$5</f>
         <v>0.81</v>
@@ -2284,7 +3200,7 @@
         <v>-0.13233899999999976</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <f t="shared" ref="B9:B13" si="1">B8+$C$5</f>
         <v>0.82000000000000006</v>
@@ -2294,7 +3210,7 @@
         <v>-0.1041519999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <f t="shared" si="1"/>
         <v>0.83000000000000007</v>
@@ -2304,7 +3220,7 @@
         <v>-7.5432999999999639E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <f t="shared" si="1"/>
         <v>0.84000000000000008</v>
@@ -2314,7 +3230,7 @@
         <v>-4.6175999999999773E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <f t="shared" si="1"/>
         <v>0.85000000000000009</v>
@@ -2324,7 +3240,7 @@
         <v>-1.6374999999999806E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <f t="shared" si="1"/>
         <v>0.8600000000000001</v>
@@ -2334,7 +3250,7 @@
         <v>1.397600000000021E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <f>B13+$C$5</f>
         <v>0.87000000000000011</v>
@@ -2344,7 +3260,7 @@
         <v>4.488300000000045E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <f t="shared" ref="B15:B16" si="2">B14+$C$5</f>
         <v>0.88000000000000012</v>
@@ -2354,7 +3270,7 @@
         <v>7.635200000000042E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <f t="shared" si="2"/>
         <v>0.89000000000000012</v>
@@ -2364,7 +3280,7 @@
         <v>0.10838900000000051</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <f>B16+$C$5</f>
         <v>0.90000000000000013</v>
@@ -2385,20 +3301,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813F104F-B533-45EA-B96B-79D46D66AC3D}">
+  <sheetPr codeName="Лист10"/>
   <dimension ref="D2:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" width="16.69921875" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" customWidth="1"/>
+    <col min="4" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="114" t="s">
         <v>36</v>
       </c>
@@ -2407,7 +3324,7 @@
       <c r="G3" s="116"/>
       <c r="H3" s="63"/>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D4" s="58" t="s">
         <v>27</v>
       </c>
@@ -2422,7 +3339,7 @@
       </c>
       <c r="H4" s="64"/>
     </row>
-    <row r="5" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="68">
         <v>0.8</v>
       </c>
@@ -2437,7 +3354,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="71" t="s">
         <v>22</v>
       </c>
@@ -2449,7 +3366,7 @@
       </c>
       <c r="G6" s="73"/>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D7" s="58">
         <v>0</v>
       </c>
@@ -2463,7 +3380,7 @@
       </c>
       <c r="G7" s="82"/>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D8" s="4">
         <v>1</v>
       </c>
@@ -2477,7 +3394,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D9" s="4">
         <v>2</v>
       </c>
@@ -2491,7 +3408,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D10" s="4">
         <v>3</v>
       </c>
@@ -2505,7 +3422,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D11" s="4">
         <v>4</v>
       </c>
@@ -2519,7 +3436,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D12" s="4">
         <v>5</v>
       </c>
@@ -2533,7 +3450,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D13" s="4">
         <v>6</v>
       </c>
@@ -2547,7 +3464,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D14" s="4">
         <v>7</v>
       </c>
@@ -2561,7 +3478,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D15" s="4">
         <v>8</v>
       </c>
@@ -2575,7 +3492,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="5"/>
       <c r="E16" s="74"/>
       <c r="F16" s="74" t="s">
@@ -2586,8 +3503,8 @@
         <v>0.25397017628242474</v>
       </c>
     </row>
-    <row r="18" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="114" t="s">
         <v>36</v>
       </c>
@@ -2595,7 +3512,7 @@
       <c r="F19" s="115"/>
       <c r="G19" s="116"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" s="58" t="s">
         <v>27</v>
       </c>
@@ -2609,7 +3526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="68">
         <v>0.8</v>
       </c>
@@ -2624,7 +3541,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="71" t="s">
         <v>22</v>
       </c>
@@ -2636,7 +3553,7 @@
       </c>
       <c r="G22" s="73"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" s="58">
         <v>0</v>
       </c>
@@ -2650,7 +3567,7 @@
       </c>
       <c r="G23" s="82"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" s="4">
         <v>1</v>
       </c>
@@ -2664,7 +3581,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" s="4">
         <v>2</v>
       </c>
@@ -2678,7 +3595,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="4">
         <v>3</v>
       </c>
@@ -2692,7 +3609,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" s="4">
         <v>4</v>
       </c>
@@ -2706,7 +3623,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" s="4">
         <v>5</v>
       </c>
@@ -2720,7 +3637,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29" s="4">
         <v>6</v>
       </c>
@@ -2734,7 +3651,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30" s="4">
         <v>7</v>
       </c>
@@ -2748,7 +3665,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31" s="4">
         <v>8</v>
       </c>
@@ -2762,7 +3679,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32" s="4">
         <v>9</v>
       </c>
@@ -2776,7 +3693,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33" s="4">
         <v>10</v>
       </c>
@@ -2790,7 +3707,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34" s="4">
         <v>11</v>
       </c>
@@ -2804,7 +3721,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" s="4">
         <v>12</v>
       </c>
@@ -2818,7 +3735,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36" s="4">
         <v>13</v>
       </c>
@@ -2832,7 +3749,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37" s="4">
         <v>14</v>
       </c>
@@ -2846,7 +3763,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38" s="4">
         <v>15</v>
       </c>
@@ -2860,7 +3777,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D39" s="4">
         <v>16</v>
       </c>
@@ -2874,7 +3791,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40" s="4">
         <v>17</v>
       </c>
@@ -2888,7 +3805,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D41" s="4">
         <v>18</v>
       </c>
@@ -2902,7 +3819,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D42" s="4">
         <v>19</v>
       </c>
@@ -2916,7 +3833,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D43" s="4">
         <v>20</v>
       </c>
@@ -2930,7 +3847,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D44" s="5"/>
       <c r="E44" s="69"/>
       <c r="F44" s="83" t="s">
@@ -2952,21 +3869,926 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DA4079-92E0-4BE4-ADF6-B6009DAEF43C}">
+  <sheetPr codeName="Лист11"/>
+  <dimension ref="C1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="134"/>
+    </row>
+    <row r="2" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="129" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="128" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="130" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="121">
+        <v>0.43</v>
+      </c>
+      <c r="D3" s="122">
+        <v>1.6359699999999999</v>
+      </c>
+      <c r="E3" s="123">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="F3" s="124">
+        <f>0.4418*E3^5-1.1718*E3^4+1.7041*E3^3+0.1887*E3^2+1.3872*E3+0.9724</f>
+        <v>2.4194789576770459</v>
+      </c>
+      <c r="G3" s="123">
+        <v>0.503</v>
+      </c>
+      <c r="H3" s="124">
+        <f>0.4418*G3^5-1.1718*G3^4+1.7041*G3^3+0.1887*G3^2+1.3872*G3+0.9724</f>
+        <v>1.8739885296496559</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="121">
+        <v>0.48</v>
+      </c>
+      <c r="D4" s="122">
+        <v>1.73234</v>
+      </c>
+      <c r="E4" s="123">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F4" s="124">
+        <f t="shared" ref="F4:F6" si="0">0.4418*E4^5-1.1718*E4^4+1.7041*E4^3+0.1887*E4^2+1.3872*E4+0.9724</f>
+        <v>1.8958523758344015</v>
+      </c>
+      <c r="G4" s="123">
+        <v>0.441</v>
+      </c>
+      <c r="H4" s="124">
+        <f t="shared" ref="H4:H6" si="1">0.4418*G4^5-1.1718*G4^4+1.7041*G4^3+0.1887*G4^2+1.3872*G4+0.9724</f>
+        <v>1.7300561563130494</v>
+      </c>
+      <c r="I4" s="119"/>
+    </row>
+    <row r="5" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="121">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D5" s="122">
+        <v>1.87686</v>
+      </c>
+      <c r="E5" s="123">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="F5" s="124">
+        <f t="shared" si="0"/>
+        <v>2.2494282513230255</v>
+      </c>
+      <c r="G5" s="123">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="H5" s="124">
+        <f t="shared" si="1"/>
+        <v>2.1286892473805517</v>
+      </c>
+      <c r="I5" s="120"/>
+    </row>
+    <row r="6" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="121">
+        <v>0.62</v>
+      </c>
+      <c r="D6" s="122">
+        <v>2.0334500000000002</v>
+      </c>
+      <c r="E6" s="125">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="F6" s="126">
+        <f t="shared" si="0"/>
+        <v>2.5265698678914283</v>
+      </c>
+      <c r="G6" s="125">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="H6" s="126">
+        <f t="shared" si="1"/>
+        <v>2.5137453169758999</v>
+      </c>
+      <c r="I6" s="120"/>
+    </row>
+    <row r="7" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="121">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="122">
+        <v>2.2284600000000001</v>
+      </c>
+      <c r="E7" s="64"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="119"/>
+    </row>
+    <row r="8" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="121">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="122">
+        <v>2.3597299999999999</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="119"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E435B2C4-45D5-4797-82D8-DF0F701E5702}">
+  <sheetPr codeName="Лист12"/>
+  <dimension ref="B1:O30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="146" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="148"/>
+    </row>
+    <row r="3" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="149" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="150"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="152" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="153"/>
+    </row>
+    <row r="4" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="154" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="156" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="156" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="156" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="156" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="156" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="156" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="156" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="156" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="156" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="157" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="137">
+        <v>0</v>
+      </c>
+      <c r="C5" s="154">
+        <v>1.34</v>
+      </c>
+      <c r="D5" s="158">
+        <v>4.2556200000000004</v>
+      </c>
+      <c r="E5" s="159">
+        <f>D6-D5</f>
+        <v>9.7629999999999661E-2</v>
+      </c>
+      <c r="F5" s="160">
+        <f>E6-E5</f>
+        <v>4.3400000000000105E-3</v>
+      </c>
+      <c r="G5" s="160">
+        <f t="shared" ref="G5:N6" si="0">F6-F5</f>
+        <v>3.1000000000069861E-4</v>
+      </c>
+      <c r="H5" s="160">
+        <f t="shared" si="0"/>
+        <v>1.9999999998354667E-5</v>
+      </c>
+      <c r="I5" s="160">
+        <f t="shared" si="0"/>
+        <v>1.0000000002285958E-5</v>
+      </c>
+      <c r="J5" s="160">
+        <f t="shared" si="0"/>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+      <c r="K5" s="160">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000509601E-5</v>
+      </c>
+      <c r="L5" s="160">
+        <f t="shared" si="0"/>
+        <v>2.0000000003683738E-5</v>
+      </c>
+      <c r="M5" s="160">
+        <f t="shared" si="0"/>
+        <v>-1.0000000003174137E-5</v>
+      </c>
+      <c r="N5" s="160">
+        <f t="shared" si="0"/>
+        <v>-5.000000001142979E-5</v>
+      </c>
+      <c r="O5" s="160">
+        <f>N6-N5</f>
+        <v>1.6000000005522708E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="137">
+        <v>1</v>
+      </c>
+      <c r="C6" s="161">
+        <v>1.345</v>
+      </c>
+      <c r="D6" s="158">
+        <v>4.3532500000000001</v>
+      </c>
+      <c r="E6" s="159">
+        <f t="shared" ref="E6:M15" si="1">D7-D6</f>
+        <v>0.10196999999999967</v>
+      </c>
+      <c r="F6" s="160">
+        <f>E7-E6</f>
+        <v>4.6500000000007091E-3</v>
+      </c>
+      <c r="G6" s="160">
+        <f>F7-F6</f>
+        <v>3.2999999999905327E-4</v>
+      </c>
+      <c r="H6" s="160">
+        <f t="shared" ref="H6:M6" si="2">G7-G6</f>
+        <v>3.0000000000640625E-5</v>
+      </c>
+      <c r="I6" s="160">
+        <f>H7-H6</f>
+        <v>1.0000000000509601E-5</v>
+      </c>
+      <c r="J6" s="160">
+        <f t="shared" si="2"/>
+        <v>-1.0000000002285958E-5</v>
+      </c>
+      <c r="K6" s="160">
+        <f t="shared" si="2"/>
+        <v>1.0000000003174137E-5</v>
+      </c>
+      <c r="L6" s="160">
+        <f t="shared" si="2"/>
+        <v>1.0000000000509601E-5</v>
+      </c>
+      <c r="M6" s="160">
+        <f t="shared" si="2"/>
+        <v>-6.0000000014603927E-5</v>
+      </c>
+      <c r="N6" s="160">
+        <f t="shared" si="0"/>
+        <v>1.1000000004379729E-4</v>
+      </c>
+      <c r="O6" s="145"/>
+    </row>
+    <row r="7" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="137">
+        <v>2</v>
+      </c>
+      <c r="C7" s="161">
+        <v>1.35</v>
+      </c>
+      <c r="D7" s="158">
+        <v>4.4552199999999997</v>
+      </c>
+      <c r="E7" s="159">
+        <f t="shared" si="1"/>
+        <v>0.10662000000000038</v>
+      </c>
+      <c r="F7" s="160">
+        <f t="shared" si="1"/>
+        <v>4.9799999999997624E-3</v>
+      </c>
+      <c r="G7" s="160">
+        <f t="shared" si="1"/>
+        <v>3.599999999996939E-4</v>
+      </c>
+      <c r="H7" s="160">
+        <f t="shared" si="1"/>
+        <v>4.0000000001150227E-5</v>
+      </c>
+      <c r="I7" s="160">
+        <f t="shared" si="1"/>
+        <v>-1.7763568394002505E-15</v>
+      </c>
+      <c r="J7" s="160">
+        <f t="shared" si="1"/>
+        <v>8.8817841970012523E-16</v>
+      </c>
+      <c r="K7" s="160">
+        <f t="shared" si="1"/>
+        <v>2.0000000003683738E-5</v>
+      </c>
+      <c r="L7" s="160">
+        <f t="shared" si="1"/>
+        <v>-5.0000000014094326E-5</v>
+      </c>
+      <c r="M7" s="160">
+        <f t="shared" si="1"/>
+        <v>5.0000000029193359E-5</v>
+      </c>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+    </row>
+    <row r="8" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="137">
+        <v>3</v>
+      </c>
+      <c r="C8" s="161">
+        <v>1.355</v>
+      </c>
+      <c r="D8" s="158">
+        <v>4.5618400000000001</v>
+      </c>
+      <c r="E8" s="159">
+        <f t="shared" si="1"/>
+        <v>0.11160000000000014</v>
+      </c>
+      <c r="F8" s="160">
+        <f t="shared" si="1"/>
+        <v>5.3399999999994563E-3</v>
+      </c>
+      <c r="G8" s="160">
+        <f t="shared" si="1"/>
+        <v>4.0000000000084412E-4</v>
+      </c>
+      <c r="H8" s="160">
+        <f t="shared" si="1"/>
+        <v>3.999999999937387E-5</v>
+      </c>
+      <c r="I8" s="160">
+        <f t="shared" si="1"/>
+        <v>-8.8817841970012523E-16</v>
+      </c>
+      <c r="J8" s="160">
+        <f t="shared" si="1"/>
+        <v>2.0000000004571916E-5</v>
+      </c>
+      <c r="K8" s="160">
+        <f t="shared" si="1"/>
+        <v>-3.0000000010410588E-5</v>
+      </c>
+      <c r="L8" s="160">
+        <f t="shared" si="1"/>
+        <v>1.5099033134902129E-14</v>
+      </c>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+    </row>
+    <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="137">
+        <v>4</v>
+      </c>
+      <c r="C9" s="161">
+        <v>1.36</v>
+      </c>
+      <c r="D9" s="158">
+        <v>4.6734400000000003</v>
+      </c>
+      <c r="E9" s="159">
+        <f t="shared" si="1"/>
+        <v>0.1169399999999996</v>
+      </c>
+      <c r="F9" s="160">
+        <f t="shared" si="1"/>
+        <v>5.7400000000003004E-3</v>
+      </c>
+      <c r="G9" s="160">
+        <f t="shared" si="1"/>
+        <v>4.4000000000021799E-4</v>
+      </c>
+      <c r="H9" s="160">
+        <f t="shared" si="1"/>
+        <v>3.9999999998485691E-5</v>
+      </c>
+      <c r="I9" s="160">
+        <f t="shared" si="1"/>
+        <v>2.0000000003683738E-5</v>
+      </c>
+      <c r="J9" s="160">
+        <f t="shared" si="1"/>
+        <v>-1.0000000005838672E-5</v>
+      </c>
+      <c r="K9" s="160">
+        <f t="shared" si="1"/>
+        <v>-2.9999999995311555E-5</v>
+      </c>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+    </row>
+    <row r="10" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="137">
+        <v>5</v>
+      </c>
+      <c r="C10" s="161">
+        <v>1.365</v>
+      </c>
+      <c r="D10" s="158">
+        <v>4.7903799999999999</v>
+      </c>
+      <c r="E10" s="159">
+        <f t="shared" si="1"/>
+        <v>0.1226799999999999</v>
+      </c>
+      <c r="F10" s="160">
+        <f t="shared" si="1"/>
+        <v>6.1800000000005184E-3</v>
+      </c>
+      <c r="G10" s="160">
+        <f t="shared" si="1"/>
+        <v>4.7999999999870369E-4</v>
+      </c>
+      <c r="H10" s="160">
+        <f t="shared" si="1"/>
+        <v>6.0000000002169429E-5</v>
+      </c>
+      <c r="I10" s="160">
+        <f t="shared" si="1"/>
+        <v>9.999999997845066E-6</v>
+      </c>
+      <c r="J10" s="160">
+        <f t="shared" si="1"/>
+        <v>-4.0000000001150227E-5</v>
+      </c>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="145"/>
+    </row>
+    <row r="11" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="137">
+        <v>6</v>
+      </c>
+      <c r="C11" s="161">
+        <v>1.37</v>
+      </c>
+      <c r="D11" s="158">
+        <v>4.9130599999999998</v>
+      </c>
+      <c r="E11" s="159">
+        <f t="shared" si="1"/>
+        <v>0.12886000000000042</v>
+      </c>
+      <c r="F11" s="160">
+        <f t="shared" si="1"/>
+        <v>6.6599999999992221E-3</v>
+      </c>
+      <c r="G11" s="160">
+        <f t="shared" si="1"/>
+        <v>5.4000000000087311E-4</v>
+      </c>
+      <c r="H11" s="160">
+        <f t="shared" si="1"/>
+        <v>7.0000000000014495E-5</v>
+      </c>
+      <c r="I11" s="160">
+        <f t="shared" si="1"/>
+        <v>-3.0000000003305161E-5</v>
+      </c>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+    </row>
+    <row r="12" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="137">
+        <v>7</v>
+      </c>
+      <c r="C12" s="154">
+        <v>1.375</v>
+      </c>
+      <c r="D12" s="155">
+        <v>5.0419200000000002</v>
+      </c>
+      <c r="E12" s="159">
+        <f t="shared" si="1"/>
+        <v>0.13551999999999964</v>
+      </c>
+      <c r="F12" s="160">
+        <f t="shared" si="1"/>
+        <v>7.2000000000000952E-3</v>
+      </c>
+      <c r="G12" s="160">
+        <f t="shared" si="1"/>
+        <v>6.1000000000088761E-4</v>
+      </c>
+      <c r="H12" s="160">
+        <f t="shared" si="1"/>
+        <v>3.9999999996709334E-5</v>
+      </c>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+    </row>
+    <row r="13" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="137">
+        <v>8</v>
+      </c>
+      <c r="C13" s="154">
+        <v>1.38</v>
+      </c>
+      <c r="D13" s="155">
+        <v>5.1774399999999998</v>
+      </c>
+      <c r="E13" s="159">
+        <f t="shared" si="1"/>
+        <v>0.14271999999999974</v>
+      </c>
+      <c r="F13" s="162">
+        <f t="shared" si="1"/>
+        <v>7.8100000000009828E-3</v>
+      </c>
+      <c r="G13" s="160">
+        <f t="shared" si="1"/>
+        <v>6.4999999999759694E-4</v>
+      </c>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+    </row>
+    <row r="14" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="137">
+        <v>9</v>
+      </c>
+      <c r="C14" s="154">
+        <v>1.385</v>
+      </c>
+      <c r="D14" s="155">
+        <v>5.3201599999999996</v>
+      </c>
+      <c r="E14" s="159">
+        <f t="shared" si="1"/>
+        <v>0.15053000000000072</v>
+      </c>
+      <c r="F14" s="163">
+        <f t="shared" si="1"/>
+        <v>8.4599999999985798E-3</v>
+      </c>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+    </row>
+    <row r="15" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="137">
+        <v>10</v>
+      </c>
+      <c r="C15" s="154">
+        <v>1.39</v>
+      </c>
+      <c r="D15" s="165">
+        <v>5.4706900000000003</v>
+      </c>
+      <c r="E15" s="157">
+        <f t="shared" si="1"/>
+        <v>0.1589899999999993</v>
+      </c>
+      <c r="F15" s="131"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+    </row>
+    <row r="16" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="138">
+        <v>11</v>
+      </c>
+      <c r="C16" s="155">
+        <v>1.395</v>
+      </c>
+      <c r="D16" s="166">
+        <v>5.6296799999999996</v>
+      </c>
+      <c r="E16" s="167"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="140"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="140"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="141"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="141"/>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="141"/>
+    </row>
+    <row r="24" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="168" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="170"/>
+    </row>
+    <row r="25" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="172" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="172" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="173" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="139"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="119"/>
+    </row>
+    <row r="26" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="174">
+        <v>1.3616999999999999</v>
+      </c>
+      <c r="C26" s="175">
+        <f>(B26-$C$16)/$E$26</f>
+        <v>-6.6600000000000215</v>
+      </c>
+      <c r="D26" s="176">
+        <f>$D$16+C26*$E$15+(C26*(C26+1)*$F$14)/FACT(2)+(C26*(C26+1)*(C26+2)*$G$13)/FACT(3)+(C26*(C26+1)*(C26+2)*(C26+3)*$H$12)/FACT(4)+(C26*(C26+1)*(C26+2)*(C26+3)*(C26+4)*$I$11)/FACT(5)+(C26*(C26+1)*(C26+2)*(C26+3)*(C26+4)*(C26+5)*$J$10)/FACT(6)+(C26*(C26+1)*(C26+2)*(C26+3)*(C26+4)*(C26+5)*(C26+6)*$K$9)/FACT(7)+(C26*(C26+1)*(C26+2)*(C26+3)*(C26+4)*(C26+5)*(C26+6)*(C26+7)*$L$8)/FACT(8)+(C26*(C26+1)*(C26+2)*(C26+3)*(C26+4)*(C26+5)*(C26+6)*(C26+7)*(C26+8)*$M$7)/FACT(9)+(C26*(C26+1)*(C26+2)*(C26+3)*(C26+4)*(C26+5)*(C26+6)*(C26+7)*(C26+8)*(C26+9)*$N$6)/FACT(10)+(C26*(C26+1)*(C26+2)*(C26+3)*(C26+4)*(C26+5)*(C26+6)*(C26+7)*(C26+8)*(C26+9)*(C26+10)*$O$5)/FACT(11)</f>
+        <v>4.712581302395658</v>
+      </c>
+      <c r="E26" s="142">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G26" s="139"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="119"/>
+    </row>
+    <row r="27" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="177">
+        <v>1.3920999999999999</v>
+      </c>
+      <c r="C27" s="175">
+        <f t="shared" ref="C27:C29" si="3">(B27-$C$16)/$E$26</f>
+        <v>-0.58000000000002494</v>
+      </c>
+      <c r="D27" s="176">
+        <f t="shared" ref="D27:D29" si="4">$D$16+C27*$E$15+(C27*(C27+1)*$F$14)/FACT(2)+(C27*(C27+1)*(C27+2)*$G$13)/FACT(3)+(C27*(C27+1)*(C27+2)*(C27+3)*$H$12)/FACT(4)+(C27*(C27+1)*(C27+2)*(C27+3)*(C27+4)*$I$11)/FACT(5)+(C27*(C27+1)*(C27+2)*(C27+3)*(C27+4)*(C27+5)*$J$10)/FACT(6)+(C27*(C27+1)*(C27+2)*(C27+3)*(C27+4)*(C27+5)*(C27+6)*$K$9)/FACT(7)+(C27*(C27+1)*(C27+2)*(C27+3)*(C27+4)*(C27+5)*(C27+6)*(C27+7)*$L$8)/FACT(8)+(C27*(C27+1)*(C27+2)*(C27+3)*(C27+4)*(C27+5)*(C27+6)*(C27+7)*(C27+8)*$M$7)/FACT(9)+(C27*(C27+1)*(C27+2)*(C27+3)*(C27+4)*(C27+5)*(C27+6)*(C27+7)*(C27+8)*(C27+9)*$N$6)/FACT(10)+(C27*(C27+1)*(C27+2)*(C27+3)*(C27+4)*(C27+5)*(C27+6)*(C27+7)*(C27+8)*(C27+9)*(C27+10)*$O$5)/FACT(11)</f>
+        <v>5.5363960072238863</v>
+      </c>
+      <c r="E27" s="143"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="119"/>
+    </row>
+    <row r="28" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="177">
+        <v>1.3359000000000001</v>
+      </c>
+      <c r="C28" s="175">
+        <f t="shared" si="3"/>
+        <v>-11.819999999999986</v>
+      </c>
+      <c r="D28" s="176">
+        <f t="shared" si="4"/>
+        <v>4.178496229934022</v>
+      </c>
+      <c r="E28" s="143"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="119"/>
+    </row>
+    <row r="29" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="177">
+        <v>1.4</v>
+      </c>
+      <c r="C29" s="175">
+        <f t="shared" si="3"/>
+        <v>0.99999999999997868</v>
+      </c>
+      <c r="D29" s="176">
+        <f t="shared" si="4"/>
+        <v>5.7980400000001318</v>
+      </c>
+      <c r="E29" s="144"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4425EFB3-0E57-4E03-8B1B-054A471A4B9F}">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="10.69921875" customWidth="1"/>
+    <col min="2" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86" t="s">
         <v>5</v>
       </c>
@@ -2976,7 +4798,7 @@
       <c r="F2" s="87"/>
       <c r="G2" s="88"/>
     </row>
-    <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2988,7 +4810,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="88"/>
     </row>
-    <row r="4" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
@@ -3000,7 +4822,7 @@
       <c r="F4" s="87"/>
       <c r="G4" s="88"/>
     </row>
-    <row r="5" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
@@ -3012,7 +4834,7 @@
       <c r="F5" s="87"/>
       <c r="G5" s="88"/>
     </row>
-    <row r="6" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -3032,7 +4854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17">
         <v>0.85</v>
       </c>
@@ -3056,7 +4878,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <f>IF((E7*F7)&lt;0,B7,C7)</f>
         <v>0.85499999999999998</v>
@@ -3082,7 +4904,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
         <f>IF((E8*F8)&lt;0,B8,C8)</f>
         <v>0.85499999999999998</v>
@@ -3108,7 +4930,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21">
         <f>IF((E9*F9)&lt;0,B9,C9)</f>
         <v>0.85499999999999998</v>
@@ -3147,21 +4969,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A127AA0D-65D5-4C09-AD30-4A5F4D56528D}">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="C1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="30.69921875" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="33" t="s">
         <v>13</v>
       </c>
@@ -3172,7 +4995,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="84" t="s">
         <v>12</v>
       </c>
@@ -3187,7 +5010,7 @@
         <v>0.14100000000000024</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3204,7 +5027,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3221,7 +5044,7 @@
         <v>5.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
@@ -3234,22 +5057,22 @@
       <c r="I6" s="94"/>
       <c r="J6" s="95"/>
     </row>
-    <row r="7" spans="3:10" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="89"/>
       <c r="D7" s="90"/>
       <c r="H7" s="96"/>
       <c r="I7" s="97"/>
       <c r="J7" s="98"/>
     </row>
-    <row r="8" spans="3:10" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="91"/>
       <c r="D8" s="92"/>
     </row>
-    <row r="9" spans="3:10" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="29">
         <v>0.9</v>
       </c>
@@ -3258,7 +5081,7 @@
         <v>0.14100000000000024</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="25">
         <f>C10-(D10/(3*C10^2+0.4*C10+0.5))</f>
         <v>0.8571428571428571</v>
@@ -3268,7 +5091,7 @@
         <v>5.2478134110787167E-3</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="27">
         <f>C11-(D11/(3*C11^2+0.4*C11+0.5))</f>
         <v>0.85542053392019901</v>
@@ -3291,25 +5114,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C004E0-9E3C-4DBC-A39C-98A0E223F524}">
+  <sheetPr codeName="Лист4"/>
   <dimension ref="C14:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="30.69921875" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="3:4" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="84" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="85"/>
     </row>
-    <row r="16" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
@@ -3317,7 +5141,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
@@ -3325,7 +5149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37" t="s">
         <v>7</v>
       </c>
@@ -3333,25 +5157,25 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="103" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="104"/>
     </row>
-    <row r="20" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="99"/>
       <c r="D20" s="100"/>
     </row>
-    <row r="21" spans="3:4" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="101"/>
       <c r="D21" s="102"/>
     </row>
-    <row r="22" spans="3:4" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
     </row>
-    <row r="23" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="44">
         <f>(1.2-0.2*0.8^2-0.5*0.8)^(1/3)</f>
         <v>0.87590382797757782</v>
@@ -3361,7 +5185,7 @@
         <v>6.3393417161943688E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="25">
         <f>(1.2-0.2*C23^2-0.5*C23)^(1/3)</f>
         <v>0.84744635324368822</v>
@@ -3371,7 +5195,7 @@
         <v>-2.403717621489454E-2</v>
       </c>
     </row>
-    <row r="25" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="25">
         <f t="shared" ref="C25:C28" si="0">(1.2-0.2*C24^2-0.5*C24)^(1/3)</f>
         <v>0.85845936494243413</v>
@@ -3381,7 +5205,7 @@
         <v>9.2639377756411623E-3</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="25">
         <f t="shared" si="0"/>
         <v>0.85424854292607899</v>
@@ -3391,7 +5215,7 @@
         <v>-3.5477926413849392E-3</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="25">
         <f t="shared" si="0"/>
         <v>0.85586605082187872</v>
@@ -3401,7 +5225,7 @@
         <v>1.3619787195218169E-3</v>
       </c>
     </row>
-    <row r="28" spans="3:4" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="27">
         <f t="shared" si="0"/>
         <v>0.85524582159107421</v>
@@ -3425,19 +5249,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABE9ED4-2404-45F4-9D44-9907A236DBBC}">
+  <sheetPr codeName="Лист5"/>
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="105" t="s">
         <v>17</v>
       </c>
@@ -3447,7 +5272,7 @@
       <c r="F2" s="106"/>
       <c r="G2" s="107"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="53">
         <v>3.11</v>
       </c>
@@ -3463,7 +5288,7 @@
       <c r="F3" s="48"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="56">
         <v>-1.65</v>
       </c>
@@ -3479,7 +5304,7 @@
       <c r="F4" s="49"/>
       <c r="G4" s="42"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="56">
         <v>0.6</v>
       </c>
@@ -3495,7 +5320,7 @@
       <c r="F5" s="49"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="56"/>
       <c r="C6" s="57"/>
       <c r="D6" s="57"/>
@@ -3503,7 +5328,7 @@
       <c r="F6" s="49"/>
       <c r="G6" s="42"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="56">
         <f>B3/$B$3</f>
         <v>1</v>
@@ -3523,7 +5348,7 @@
       <c r="F7" s="49"/>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="56">
         <f>B4-B7*$B$4</f>
         <v>0</v>
@@ -3543,7 +5368,7 @@
       <c r="F8" s="49"/>
       <c r="G8" s="42"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="56">
         <f>B5-B7*$B$5</f>
         <v>0</v>
@@ -3563,7 +5388,7 @@
       <c r="F9" s="49"/>
       <c r="G9" s="42"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="56"/>
       <c r="C10" s="57"/>
       <c r="D10" s="57"/>
@@ -3571,7 +5396,7 @@
       <c r="F10" s="49"/>
       <c r="G10" s="42"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="56">
         <f>B7</f>
         <v>1</v>
@@ -3596,7 +5421,7 @@
         <v>-0.18038680481029712</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="56">
         <f>B8/$C$8</f>
         <v>0</v>
@@ -3621,7 +5446,7 @@
         <v>0.48324945663637592</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="56">
         <f>B9-B12*$C$9</f>
         <v>0</v>
@@ -3646,7 +5471,7 @@
         <v>-0.7386617682940132</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="45"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -3664,20 +5489,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE1DD9A-7F61-479B-81D6-EEDBE609EF94}">
+  <sheetPr codeName="Лист6"/>
   <dimension ref="B4:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.69921875" customWidth="1"/>
-    <col min="9" max="9" width="20.8984375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="111" t="s">
         <v>21</v>
       </c>
@@ -3689,7 +5515,7 @@
       <c r="H5" s="112"/>
       <c r="I5" s="113"/>
     </row>
-    <row r="6" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="58" t="s">
         <v>22</v>
       </c>
@@ -3711,7 +5537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>0</v>
       </c>
@@ -3735,7 +5561,7 @@
       </c>
       <c r="I7" s="60"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>1</v>
       </c>
@@ -3768,7 +5594,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>2</v>
       </c>
@@ -3801,7 +5627,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>3</v>
       </c>
@@ -3834,7 +5660,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -3867,7 +5693,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>5</v>
       </c>
@@ -3900,7 +5726,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -3933,7 +5759,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -3966,7 +5792,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>8</v>
       </c>
@@ -3999,7 +5825,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>9</v>
       </c>
@@ -4032,7 +5858,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>10</v>
       </c>
@@ -4065,7 +5891,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>11</v>
       </c>
@@ -4098,7 +5924,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>12</v>
       </c>
@@ -4131,7 +5957,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>13</v>
       </c>
@@ -4164,7 +5990,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>14</v>
       </c>
@@ -4197,7 +6023,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>15</v>
       </c>
@@ -4230,7 +6056,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>16</v>
       </c>
@@ -4263,7 +6089,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>17</v>
       </c>
@@ -4296,7 +6122,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>18</v>
       </c>
@@ -4329,7 +6155,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>19</v>
       </c>
@@ -4362,7 +6188,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>20</v>
       </c>
@@ -4406,20 +6232,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E019FA4-E983-496F-B722-121A3E017FAE}">
+  <sheetPr codeName="Лист7"/>
   <dimension ref="B4:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.69921875" customWidth="1"/>
-    <col min="9" max="9" width="20.8984375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="111" t="s">
         <v>25</v>
       </c>
@@ -4431,7 +6258,7 @@
       <c r="H5" s="112"/>
       <c r="I5" s="113"/>
     </row>
-    <row r="6" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="58" t="s">
         <v>22</v>
       </c>
@@ -4453,7 +6280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>0</v>
       </c>
@@ -4477,7 +6304,7 @@
       </c>
       <c r="I7" s="60"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>1</v>
       </c>
@@ -4510,7 +6337,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>2</v>
       </c>
@@ -4543,7 +6370,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>3</v>
       </c>
@@ -4576,7 +6403,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -4609,7 +6436,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>5</v>
       </c>
@@ -4642,7 +6469,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -4675,7 +6502,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -4708,7 +6535,7 @@
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>8</v>
       </c>
@@ -4741,7 +6568,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>9</v>
       </c>
@@ -4774,7 +6601,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>10</v>
       </c>
@@ -4807,7 +6634,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>11</v>
       </c>
@@ -4840,7 +6667,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>12</v>
       </c>
@@ -4873,7 +6700,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>13</v>
       </c>
@@ -4906,7 +6733,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>14</v>
       </c>
@@ -4939,7 +6766,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>15</v>
       </c>
@@ -4972,7 +6799,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>16</v>
       </c>
@@ -5005,7 +6832,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>17</v>
       </c>
@@ -5038,7 +6865,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>18</v>
       </c>
@@ -5071,7 +6898,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>19</v>
       </c>
@@ -5104,7 +6931,7 @@
         <v>ДА</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>20</v>
       </c>
@@ -5148,20 +6975,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBA286C-4F68-42A3-9DE7-519B23D0087E}">
+  <sheetPr codeName="Лист8"/>
   <dimension ref="D2:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18:G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" width="16.69921875" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" customWidth="1"/>
+    <col min="4" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="114" t="s">
         <v>26</v>
       </c>
@@ -5170,7 +6998,7 @@
       <c r="G3" s="116"/>
       <c r="H3" s="63"/>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D4" s="58" t="s">
         <v>27</v>
       </c>
@@ -5185,7 +7013,7 @@
       </c>
       <c r="H4" s="64"/>
     </row>
-    <row r="5" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="68">
         <v>0.8</v>
       </c>
@@ -5200,7 +7028,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="61" t="s">
         <v>22</v>
       </c>
@@ -5214,7 +7042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D7" s="8">
         <v>1</v>
       </c>
@@ -5231,7 +7059,7 @@
         <v>2.7783438891725111E-2</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D8" s="4">
         <v>2</v>
       </c>
@@ -5248,7 +7076,7 @@
         <v>2.9402596362380046E-2</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D9" s="4">
         <v>3</v>
       </c>
@@ -5265,7 +7093,7 @@
         <v>3.0736762330471408E-2</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D10" s="4">
         <v>4</v>
       </c>
@@ -5282,7 +7110,7 @@
         <v>3.182223675353734E-2</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D11" s="4">
         <v>5</v>
       </c>
@@ -5299,7 +7127,7 @@
         <v>3.2693109925104859E-2</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D12" s="4">
         <v>6</v>
       </c>
@@ -5316,7 +7144,7 @@
         <v>3.3380292636815218E-2</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D13" s="4">
         <v>7</v>
       </c>
@@ -5333,7 +7161,7 @@
         <v>3.3911157942811548E-2</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D14" s="4">
         <v>8</v>
       </c>
@@ -5350,7 +7178,7 @@
         <v>3.4309557024217577E-2</v>
       </c>
     </row>
-    <row r="15" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
       <c r="E15" s="74"/>
       <c r="F15" s="74" t="s">
@@ -5361,8 +7189,8 @@
         <v>0.25403915186706311</v>
       </c>
     </row>
-    <row r="17" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="114" t="s">
         <v>26</v>
       </c>
@@ -5370,7 +7198,7 @@
       <c r="F18" s="115"/>
       <c r="G18" s="116"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="58" t="s">
         <v>27</v>
       </c>
@@ -5384,7 +7212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="68">
         <v>0.8</v>
       </c>
@@ -5399,7 +7227,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="61" t="s">
         <v>22</v>
       </c>
@@ -5413,7 +7241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" s="8">
         <v>1</v>
       </c>
@@ -5430,7 +7258,7 @@
         <v>1.0894641896506201E-2</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" s="4">
         <v>2</v>
       </c>
@@ -5447,7 +7275,7 @@
         <v>1.1183692976432484E-2</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" s="4">
         <v>3</v>
       </c>
@@ -5464,7 +7292,7 @@
         <v>1.145238110529709E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" s="4">
         <v>4</v>
       </c>
@@ -5481,7 +7309,7 @@
         <v>1.1701646032795103E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="4">
         <v>5</v>
       </c>
@@ -5498,7 +7326,7 @@
         <v>1.193243648328947E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" s="4">
         <v>6</v>
       </c>
@@ -5515,7 +7343,7 @@
         <v>1.2145698621927423E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" s="4">
         <v>7</v>
       </c>
@@ -5532,7 +7360,7 @@
         <v>1.2342366666759221E-2</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29" s="4">
         <v>8</v>
       </c>
@@ -5549,7 +7377,7 @@
         <v>1.2523355406731301E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30" s="4">
         <v>9</v>
       </c>
@@ -5566,7 +7394,7 @@
         <v>1.2689554385050429E-2</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31" s="4">
         <v>10</v>
       </c>
@@ -5583,7 +7411,7 @@
         <v>1.2841823516612528E-2</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32" s="4">
         <v>11</v>
       </c>
@@ -5600,7 +7428,7 @@
         <v>1.2980989923627282E-2</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33" s="4">
         <v>12</v>
       </c>
@@ -5617,7 +7445,7 @@
         <v>1.3107845792649229E-2</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34" s="4">
         <v>13</v>
       </c>
@@ -5634,7 +7462,7 @@
         <v>1.322314707699717E-2</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" s="4">
         <v>14</v>
       </c>
@@ -5651,7 +7479,7 @@
         <v>1.3327612889605578E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36" s="4">
         <v>15</v>
       </c>
@@ -5668,7 +7496,7 @@
         <v>1.3421925451743717E-2</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37" s="4">
         <v>16</v>
       </c>
@@ -5685,7 +7513,7 @@
         <v>1.3506730482145977E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38" s="4">
         <v>17</v>
       </c>
@@ -5702,7 +7530,7 @@
         <v>1.3582637928566463E-2</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D39" s="4">
         <v>18</v>
       </c>
@@ -5719,7 +7547,7 @@
         <v>1.3650222959436652E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40" s="4">
         <v>19</v>
       </c>
@@ -5736,7 +7564,7 @@
         <v>1.3710027147135291E-2</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D41" s="4">
         <v>20</v>
       </c>
@@ -5753,7 +7581,7 @@
         <v>1.3762559786431221E-2</v>
       </c>
     </row>
-    <row r="42" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="5"/>
       <c r="E42" s="74"/>
       <c r="F42" s="74" t="s">
@@ -5777,20 +7605,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51559526-6A96-4AF8-9018-62B822743CE4}">
+  <sheetPr codeName="Лист9"/>
   <dimension ref="D2:H44"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" width="16.69921875" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" customWidth="1"/>
+    <col min="4" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="114" t="s">
         <v>34</v>
       </c>
@@ -5799,7 +7628,7 @@
       <c r="G3" s="116"/>
       <c r="H3" s="63"/>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D4" s="58" t="s">
         <v>27</v>
       </c>
@@ -5814,7 +7643,7 @@
       </c>
       <c r="H4" s="64"/>
     </row>
-    <row r="5" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="68">
         <v>0.8</v>
       </c>
@@ -5829,7 +7658,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="71" t="s">
         <v>22</v>
       </c>
@@ -5841,7 +7670,7 @@
       </c>
       <c r="G6" s="73"/>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D7" s="58">
         <v>0</v>
       </c>
@@ -5855,7 +7684,7 @@
       </c>
       <c r="G7" s="82"/>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D8" s="4">
         <v>1</v>
       </c>
@@ -5869,7 +7698,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D9" s="4">
         <v>2</v>
       </c>
@@ -5883,7 +7712,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D10" s="4">
         <v>3</v>
       </c>
@@ -5897,7 +7726,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D11" s="4">
         <v>4</v>
       </c>
@@ -5911,7 +7740,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D12" s="4">
         <v>5</v>
       </c>
@@ -5925,7 +7754,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D13" s="4">
         <v>6</v>
       </c>
@@ -5939,7 +7768,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D14" s="4">
         <v>7</v>
       </c>
@@ -5953,7 +7782,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D15" s="4">
         <v>8</v>
       </c>
@@ -5967,7 +7796,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="4:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="5"/>
       <c r="E16" s="74"/>
       <c r="F16" s="74" t="s">
@@ -5978,8 +7807,8 @@
         <v>0.25383249805248165</v>
       </c>
     </row>
-    <row r="18" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="114" t="s">
         <v>34</v>
       </c>
@@ -5987,7 +7816,7 @@
       <c r="F19" s="115"/>
       <c r="G19" s="116"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" s="58" t="s">
         <v>27</v>
       </c>
@@ -6001,7 +7830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="68">
         <v>0.8</v>
       </c>
@@ -6016,7 +7845,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="71" t="s">
         <v>22</v>
       </c>
@@ -6028,7 +7857,7 @@
       </c>
       <c r="G22" s="73"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" s="58">
         <v>0</v>
       </c>
@@ -6042,7 +7871,7 @@
       </c>
       <c r="G23" s="82"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" s="4">
         <v>1</v>
       </c>
@@ -6056,7 +7885,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" s="4">
         <v>2</v>
       </c>
@@ -6070,7 +7899,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="4">
         <v>3</v>
       </c>
@@ -6084,7 +7913,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" s="4">
         <v>4</v>
       </c>
@@ -6098,7 +7927,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" s="4">
         <v>5</v>
       </c>
@@ -6112,7 +7941,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29" s="4">
         <v>6</v>
       </c>
@@ -6126,7 +7955,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30" s="4">
         <v>7</v>
       </c>
@@ -6140,7 +7969,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31" s="4">
         <v>8</v>
       </c>
@@ -6154,7 +7983,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32" s="4">
         <v>9</v>
       </c>
@@ -6168,7 +7997,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33" s="4">
         <v>10</v>
       </c>
@@ -6182,7 +8011,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34" s="4">
         <v>11</v>
       </c>
@@ -6196,7 +8025,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" s="4">
         <v>12</v>
       </c>
@@ -6210,7 +8039,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36" s="4">
         <v>13</v>
       </c>
@@ -6224,7 +8053,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37" s="4">
         <v>14</v>
       </c>
@@ -6238,7 +8067,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38" s="4">
         <v>15</v>
       </c>
@@ -6252,7 +8081,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D39" s="4">
         <v>16</v>
       </c>
@@ -6266,7 +8095,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40" s="4">
         <v>17</v>
       </c>
@@ -6280,7 +8109,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D41" s="4">
         <v>18</v>
       </c>
@@ -6294,7 +8123,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D42" s="4">
         <v>19</v>
       </c>
@@ -6308,7 +8137,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D43" s="4">
         <v>20</v>
       </c>
@@ -6322,7 +8151,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="4:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D44" s="5"/>
       <c r="E44" s="69"/>
       <c r="F44" s="83" t="s">
